--- a/data/cleaned.xlsx
+++ b/data/cleaned.xlsx
@@ -446,102 +446,102 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>gps_height</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>longitude</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>latitude</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>population</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>construction_year</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>funder</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>gps_height</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>installer</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>longitude</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>latitude</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>wpt_name</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>num_private</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>basin</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>subvillage</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>region</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>region_code</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>district_code</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>lga</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>ward</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>population</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>public_meeting</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>recorded_by</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>scheme_management</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>permit</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>construction_year</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
@@ -635,93 +635,93 @@
         <v>69572</v>
       </c>
       <c r="B2" t="n">
-        <v>6010</v>
-      </c>
-      <c r="C2" t="inlineStr">
+        <v>6000</v>
+      </c>
+      <c r="C2" t="n">
+        <v>1390</v>
+      </c>
+      <c r="D2" t="n">
+        <v>34.93809275</v>
+      </c>
+      <c r="E2" t="n">
+        <v>-9.856321769999999</v>
+      </c>
+      <c r="F2" t="n">
+        <v>109</v>
+      </c>
+      <c r="G2" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H2" t="inlineStr">
         <is>
           <t>roman</t>
         </is>
       </c>
-      <c r="D2" t="n">
-        <v>1432</v>
-      </c>
-      <c r="E2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>roman</t>
         </is>
       </c>
-      <c r="F2" t="n">
-        <v>49.811625585</v>
-      </c>
-      <c r="G2" t="n">
-        <v>2.298975950000001</v>
-      </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>Mnyusi B</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>Ludewa</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="R2" t="inlineStr">
         <is>
           <t>Mundindi</t>
         </is>
       </c>
-      <c r="Q2" t="n">
-        <v>109</v>
-      </c>
-      <c r="R2" t="b">
+      <c r="S2" t="b">
         <v>1</v>
       </c>
-      <c r="S2" t="inlineStr">
+      <c r="T2" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T2" t="inlineStr">
+      <c r="U2" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U2" t="b">
+      <c r="V2" t="b">
         <v>0</v>
-      </c>
-      <c r="V2" t="n">
-        <v>1999</v>
       </c>
       <c r="W2" t="inlineStr">
         <is>
@@ -814,95 +814,95 @@
         <v>8776</v>
       </c>
       <c r="B3" t="n">
-        <v>10</v>
-      </c>
-      <c r="C3" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1399</v>
+      </c>
+      <c r="D3" t="n">
+        <v>34.6987661</v>
+      </c>
+      <c r="E3" t="n">
+        <v>-2.14746569</v>
+      </c>
+      <c r="F3" t="n">
+        <v>280</v>
+      </c>
+      <c r="G3" t="n">
+        <v>2010</v>
+      </c>
+      <c r="H3" t="inlineStr">
         <is>
           <t>grumeti</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>1441</v>
-      </c>
-      <c r="E3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>grumeti</t>
         </is>
       </c>
-      <c r="F3" t="n">
-        <v>49.572298935</v>
-      </c>
-      <c r="G3" t="n">
-        <v>10.00783203</v>
-      </c>
-      <c r="H3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>Zahanati</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>Nyamara</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>Mara</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>20</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>Serengeti</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="R3" t="inlineStr">
         <is>
           <t>Natta</t>
         </is>
       </c>
-      <c r="Q3" t="n">
-        <v>280</v>
-      </c>
-      <c r="R3" t="inlineStr">
+      <c r="S3" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="S3" t="inlineStr">
+      <c r="T3" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U3" t="b">
+      <c r="V3" t="b">
         <v>1</v>
-      </c>
-      <c r="V3" t="n">
-        <v>2010</v>
       </c>
       <c r="W3" t="inlineStr">
         <is>
@@ -995,93 +995,93 @@
         <v>34310</v>
       </c>
       <c r="B4" t="n">
-        <v>35</v>
-      </c>
-      <c r="C4" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="C4" t="n">
+        <v>686</v>
+      </c>
+      <c r="D4" t="n">
+        <v>37.46066446</v>
+      </c>
+      <c r="E4" t="n">
+        <v>-3.82132853</v>
+      </c>
+      <c r="F4" t="n">
+        <v>250</v>
+      </c>
+      <c r="G4" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H4" t="inlineStr">
         <is>
           <t>lottery club</t>
         </is>
       </c>
-      <c r="D4" t="n">
-        <v>728</v>
-      </c>
-      <c r="E4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>world vision</t>
         </is>
       </c>
-      <c r="F4" t="n">
-        <v>52.334197295</v>
-      </c>
-      <c r="G4" t="n">
-        <v>8.333969189999999</v>
-      </c>
-      <c r="H4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>Kwa Mahundi</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>Majengo</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>Manyara</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>21</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>Simanjiro</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="R4" t="inlineStr">
         <is>
           <t>Ngorika</t>
         </is>
       </c>
-      <c r="Q4" t="n">
-        <v>250</v>
-      </c>
-      <c r="R4" t="b">
+      <c r="S4" t="b">
         <v>1</v>
       </c>
-      <c r="S4" t="inlineStr">
+      <c r="T4" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T4" t="inlineStr">
+      <c r="U4" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U4" t="b">
+      <c r="V4" t="b">
         <v>1</v>
-      </c>
-      <c r="V4" t="n">
-        <v>2009</v>
       </c>
       <c r="W4" t="inlineStr">
         <is>
@@ -1174,93 +1174,93 @@
         <v>67743</v>
       </c>
       <c r="B5" t="n">
-        <v>10</v>
-      </c>
-      <c r="C5" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>263</v>
+      </c>
+      <c r="D5" t="n">
+        <v>38.48616088</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-11.15529772</v>
+      </c>
+      <c r="F5" t="n">
+        <v>58</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H5" t="inlineStr">
         <is>
           <t>unicef</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>305</v>
-      </c>
-      <c r="E5" t="inlineStr">
+      <c r="I5" t="inlineStr">
         <is>
           <t>unicef</t>
         </is>
       </c>
-      <c r="F5" t="n">
-        <v>53.359693715</v>
-      </c>
-      <c r="G5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>Zahanati Ya Nanyumbu</t>
+        </is>
+      </c>
+      <c r="K5" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
+          <t>Ruvuma / Southern Coast</t>
+        </is>
+      </c>
+      <c r="M5" t="inlineStr">
+        <is>
+          <t>Mahakamani</t>
+        </is>
+      </c>
+      <c r="N5" t="inlineStr">
+        <is>
+          <t>Mtwara</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="P5" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
+        <is>
+          <t>Nanyumbu</t>
+        </is>
+      </c>
+      <c r="R5" t="inlineStr">
+        <is>
+          <t>Nanyumbu</t>
+        </is>
+      </c>
+      <c r="S5" t="b">
         <v>1</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Zahanati Ya Nanyumbu</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J5" t="inlineStr">
-        <is>
-          <t>Ruvuma / Southern Coast</t>
-        </is>
-      </c>
-      <c r="K5" t="inlineStr">
-        <is>
-          <t>Mahakamani</t>
-        </is>
-      </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Mtwara</t>
-        </is>
-      </c>
-      <c r="M5" t="inlineStr">
-        <is>
-          <t>90</t>
-        </is>
-      </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="O5" t="inlineStr">
-        <is>
-          <t>Nanyumbu</t>
-        </is>
-      </c>
-      <c r="P5" t="inlineStr">
-        <is>
-          <t>Nanyumbu</t>
-        </is>
-      </c>
-      <c r="Q5" t="n">
-        <v>58</v>
-      </c>
-      <c r="R5" t="b">
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>VWC</t>
+        </is>
+      </c>
+      <c r="V5" t="b">
         <v>1</v>
-      </c>
-      <c r="S5" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>VWC</t>
-        </is>
-      </c>
-      <c r="U5" t="b">
-        <v>1</v>
-      </c>
-      <c r="V5" t="n">
-        <v>1986</v>
       </c>
       <c r="W5" t="inlineStr">
         <is>
@@ -1353,93 +1353,93 @@
         <v>19728</v>
       </c>
       <c r="B6" t="n">
-        <v>10</v>
-      </c>
-      <c r="C6" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>31.13084671</v>
+      </c>
+      <c r="E6" t="n">
+        <v>-1.82535885</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr">
         <is>
           <t>action in africa</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>42</v>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>artisan</t>
         </is>
       </c>
-      <c r="F6" t="n">
-        <v>46.004379545</v>
-      </c>
-      <c r="G6" t="n">
-        <v>10.32993887</v>
-      </c>
-      <c r="H6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>Shuleni</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>Kyanyamisa</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>Kagera</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="O6" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
+      <c r="P6" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>Karagwe</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>Nyakasimbi</t>
         </is>
       </c>
-      <c r="Q6" t="n">
-        <v>100</v>
-      </c>
-      <c r="R6" t="b">
+      <c r="S6" t="b">
         <v>1</v>
       </c>
-      <c r="S6" t="inlineStr">
+      <c r="T6" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U6" t="b">
+      <c r="V6" t="b">
         <v>1</v>
-      </c>
-      <c r="V6" t="n">
-        <v>2002</v>
       </c>
       <c r="W6" t="inlineStr">
         <is>
@@ -1532,93 +1532,93 @@
         <v>9944</v>
       </c>
       <c r="B7" t="n">
-        <v>30</v>
-      </c>
-      <c r="C7" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>39.1727956</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-4.76558728</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H7" t="inlineStr">
         <is>
           <t>mkinga distric coun</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>42</v>
-      </c>
-      <c r="E7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F7" t="n">
-        <v>54.046328435</v>
-      </c>
-      <c r="G7" t="n">
-        <v>7.38971044</v>
-      </c>
-      <c r="H7" t="inlineStr">
+      <c r="J7" t="inlineStr">
         <is>
           <t>Tajiri</t>
         </is>
       </c>
-      <c r="I7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="L7" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>Moa/Mwereme</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>Tanga</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="O7" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
+      <c r="P7" t="inlineStr">
         <is>
           <t>8</t>
         </is>
       </c>
-      <c r="O7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>Mkinga</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="R7" t="inlineStr">
         <is>
           <t>Moa</t>
         </is>
       </c>
-      <c r="Q7" t="n">
+      <c r="S7" t="b">
         <v>1</v>
       </c>
-      <c r="R7" t="b">
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>VWC</t>
+        </is>
+      </c>
+      <c r="V7" t="b">
         <v>1</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr">
-        <is>
-          <t>VWC</t>
-        </is>
-      </c>
-      <c r="U7" t="b">
-        <v>1</v>
-      </c>
-      <c r="V7" t="n">
-        <v>2009</v>
       </c>
       <c r="W7" t="inlineStr">
         <is>
@@ -1711,93 +1711,93 @@
         <v>19816</v>
       </c>
       <c r="B8" t="n">
-        <v>10</v>
-      </c>
-      <c r="C8" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>33.36240982</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-3.76636472</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr">
         <is>
           <t>dwsp</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>42</v>
-      </c>
-      <c r="E8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>dwsp</t>
         </is>
       </c>
-      <c r="F8" t="n">
-        <v>48.235942655</v>
-      </c>
-      <c r="G8" t="n">
-        <v>8.388933</v>
-      </c>
-      <c r="H8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>Kwa Ngomho</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>Ishinabulandi</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="O8" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>Shinyanga Rural</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="R8" t="inlineStr">
         <is>
           <t>Samuye</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>100</v>
-      </c>
-      <c r="R8" t="b">
+      <c r="S8" t="b">
         <v>1</v>
       </c>
-      <c r="S8" t="inlineStr">
+      <c r="T8" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U8" t="b">
+      <c r="V8" t="b">
         <v>1</v>
-      </c>
-      <c r="V8" t="n">
-        <v>2002</v>
       </c>
       <c r="W8" t="inlineStr">
         <is>
@@ -1890,93 +1890,93 @@
         <v>54551</v>
       </c>
       <c r="B9" t="n">
-        <v>10</v>
-      </c>
-      <c r="C9" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>32.62061707</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-4.22619802</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="inlineStr">
         <is>
           <t>rwssp</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>42</v>
-      </c>
-      <c r="E9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F9" t="n">
-        <v>47.494149905</v>
-      </c>
-      <c r="G9" t="n">
-        <v>7.9290997</v>
-      </c>
-      <c r="H9" t="inlineStr">
+      <c r="J9" t="inlineStr">
         <is>
           <t>Tushirikiane</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="L9" t="inlineStr">
         <is>
           <t>Lake Tanganyika</t>
         </is>
       </c>
-      <c r="K9" t="inlineStr">
+      <c r="M9" t="inlineStr">
         <is>
           <t>Nyawishi Center</t>
         </is>
       </c>
-      <c r="L9" t="inlineStr">
+      <c r="N9" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M9" t="inlineStr">
+      <c r="O9" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N9" t="inlineStr">
+      <c r="P9" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>Kahama</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="R9" t="inlineStr">
         <is>
           <t>Chambo</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>100</v>
-      </c>
-      <c r="R9" t="b">
+      <c r="S9" t="b">
         <v>1</v>
       </c>
-      <c r="S9" t="inlineStr">
+      <c r="T9" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U9" t="b">
+      <c r="V9" t="b">
         <v>1</v>
-      </c>
-      <c r="V9" t="n">
-        <v>2002</v>
       </c>
       <c r="W9" t="inlineStr">
         <is>
@@ -2069,93 +2069,93 @@
         <v>53934</v>
       </c>
       <c r="B10" t="n">
-        <v>10</v>
-      </c>
-      <c r="C10" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32.71110001</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-5.14671181</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr">
         <is>
           <t>water aid</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>42</v>
-      </c>
-      <c r="E10" t="inlineStr">
+      <c r="I10" t="inlineStr">
         <is>
           <t>water aid</t>
         </is>
       </c>
-      <c r="F10" t="n">
-        <v>47.584632845</v>
-      </c>
-      <c r="G10" t="n">
-        <v>7.00858591</v>
-      </c>
-      <c r="H10" t="inlineStr">
+      <c r="J10" t="inlineStr">
         <is>
           <t>Kwa Ramadhan Musa</t>
         </is>
       </c>
-      <c r="I10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="L10" t="inlineStr">
         <is>
           <t>Lake Tanganyika</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
+      <c r="M10" t="inlineStr">
         <is>
           <t>Imalauduki</t>
         </is>
       </c>
-      <c r="L10" t="inlineStr">
+      <c r="N10" t="inlineStr">
         <is>
           <t>Tabora</t>
         </is>
       </c>
-      <c r="M10" t="inlineStr">
+      <c r="O10" t="inlineStr">
         <is>
           <t>14</t>
         </is>
       </c>
-      <c r="N10" t="inlineStr">
+      <c r="P10" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>Tabora Urban</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="R10" t="inlineStr">
         <is>
           <t>Itetemia</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>100</v>
-      </c>
-      <c r="R10" t="b">
+      <c r="S10" t="b">
         <v>1</v>
       </c>
-      <c r="S10" t="inlineStr">
+      <c r="T10" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U10" t="b">
+      <c r="V10" t="b">
         <v>1</v>
-      </c>
-      <c r="V10" t="n">
-        <v>2002</v>
       </c>
       <c r="W10" t="inlineStr">
         <is>
@@ -2248,93 +2248,93 @@
         <v>46144</v>
       </c>
       <c r="B11" t="n">
-        <v>10</v>
-      </c>
-      <c r="C11" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>30.62699053</v>
+      </c>
+      <c r="E11" t="n">
+        <v>-1.25705061</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="inlineStr">
         <is>
           <t>isingiro ho</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>42</v>
-      </c>
-      <c r="E11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>artisan</t>
         </is>
       </c>
-      <c r="F11" t="n">
-        <v>45.500523365</v>
-      </c>
-      <c r="G11" t="n">
-        <v>10.89824711</v>
-      </c>
-      <c r="H11" t="inlineStr">
+      <c r="J11" t="inlineStr">
         <is>
           <t>Kwapeto</t>
         </is>
       </c>
-      <c r="I11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="L11" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K11" t="inlineStr">
+      <c r="M11" t="inlineStr">
         <is>
           <t>Mkonomre</t>
         </is>
       </c>
-      <c r="L11" t="inlineStr">
+      <c r="N11" t="inlineStr">
         <is>
           <t>Kagera</t>
         </is>
       </c>
-      <c r="M11" t="inlineStr">
+      <c r="O11" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N11" t="inlineStr">
+      <c r="P11" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O11" t="inlineStr">
+      <c r="Q11" t="inlineStr">
         <is>
           <t>Karagwe</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
+      <c r="R11" t="inlineStr">
         <is>
           <t>Kaisho</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>100</v>
-      </c>
-      <c r="R11" t="b">
+      <c r="S11" t="b">
         <v>1</v>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="T11" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U11" t="b">
+      <c r="V11" t="b">
         <v>1</v>
-      </c>
-      <c r="V11" t="n">
-        <v>2002</v>
       </c>
       <c r="W11" t="inlineStr">
         <is>
@@ -2427,93 +2427,93 @@
         <v>49056</v>
       </c>
       <c r="B12" t="n">
-        <v>10</v>
-      </c>
-      <c r="C12" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>62</v>
+      </c>
+      <c r="D12" t="n">
+        <v>39.20951812</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-7.03413939</v>
+      </c>
+      <c r="F12" t="n">
+        <v>345</v>
+      </c>
+      <c r="G12" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H12" t="inlineStr">
         <is>
           <t>private</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>104</v>
-      </c>
-      <c r="E12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>private</t>
         </is>
       </c>
-      <c r="F12" t="n">
-        <v>54.083050955</v>
-      </c>
-      <c r="G12" t="n">
-        <v>5.12115833</v>
-      </c>
-      <c r="H12" t="inlineStr">
+      <c r="J12" t="inlineStr">
         <is>
           <t>Mzee Hokororo</t>
         </is>
       </c>
-      <c r="I12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="L12" t="inlineStr">
         <is>
           <t>Wami / Ruvu</t>
         </is>
       </c>
-      <c r="K12" t="inlineStr">
+      <c r="M12" t="inlineStr">
         <is>
           <t>Mizugo</t>
         </is>
       </c>
-      <c r="L12" t="inlineStr">
+      <c r="N12" t="inlineStr">
         <is>
           <t>Pwani</t>
         </is>
       </c>
-      <c r="M12" t="inlineStr">
+      <c r="O12" t="inlineStr">
         <is>
           <t>60</t>
         </is>
       </c>
-      <c r="N12" t="inlineStr">
+      <c r="P12" t="inlineStr">
         <is>
           <t>43</t>
         </is>
       </c>
-      <c r="O12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>Mkuranga</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="R12" t="inlineStr">
         <is>
           <t>Tambani</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>345</v>
-      </c>
-      <c r="R12" t="b">
+      <c r="S12" t="b">
         <v>1</v>
       </c>
-      <c r="S12" t="inlineStr">
+      <c r="T12" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Private operator</t>
         </is>
       </c>
-      <c r="U12" t="b">
+      <c r="V12" t="b">
         <v>0</v>
-      </c>
-      <c r="V12" t="n">
-        <v>2011</v>
       </c>
       <c r="W12" t="inlineStr">
         <is>
@@ -2606,93 +2606,93 @@
         <v>50409</v>
       </c>
       <c r="B13" t="n">
-        <v>210</v>
-      </c>
-      <c r="C13" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="C13" t="n">
+        <v>1062</v>
+      </c>
+      <c r="D13" t="n">
+        <v>35.77025785</v>
+      </c>
+      <c r="E13" t="n">
+        <v>-10.57417468</v>
+      </c>
+      <c r="F13" t="n">
+        <v>250</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1987</v>
+      </c>
+      <c r="H13" t="inlineStr">
         <is>
           <t>danida</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>1104</v>
-      </c>
-      <c r="E13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>danida</t>
         </is>
       </c>
-      <c r="F13" t="n">
-        <v>50.643790685</v>
-      </c>
-      <c r="G13" t="n">
-        <v>1.58112304</v>
-      </c>
-      <c r="H13" t="inlineStr">
+      <c r="J13" t="inlineStr">
         <is>
           <t>Kwa Alid Nchimbi</t>
         </is>
       </c>
-      <c r="I13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="L13" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K13" t="inlineStr">
+      <c r="M13" t="inlineStr">
         <is>
           <t>Ngondombwito</t>
         </is>
       </c>
-      <c r="L13" t="inlineStr">
+      <c r="N13" t="inlineStr">
         <is>
           <t>Ruvuma</t>
         </is>
       </c>
-      <c r="M13" t="inlineStr">
+      <c r="O13" t="inlineStr">
         <is>
           <t>10</t>
         </is>
       </c>
-      <c r="N13" t="inlineStr">
+      <c r="P13" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>Namtumbo</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>Msindo</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>250</v>
-      </c>
-      <c r="R13" t="b">
+      <c r="S13" t="b">
         <v>1</v>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U13" t="b">
+      <c r="V13" t="b">
         <v>0</v>
-      </c>
-      <c r="V13" t="n">
-        <v>1987</v>
       </c>
       <c r="W13" t="inlineStr">
         <is>
@@ -2785,93 +2785,93 @@
         <v>36957</v>
       </c>
       <c r="B14" t="n">
-        <v>10</v>
-      </c>
-      <c r="C14" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>33.79810612</v>
+      </c>
+      <c r="E14" t="n">
+        <v>-3.2901938</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr">
         <is>
           <t>world vision</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>42</v>
-      </c>
-      <c r="E14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>world vision</t>
         </is>
       </c>
-      <c r="F14" t="n">
-        <v>48.671638955</v>
-      </c>
-      <c r="G14" t="n">
-        <v>8.865103920000001</v>
-      </c>
-      <c r="H14" t="inlineStr">
+      <c r="J14" t="inlineStr">
         <is>
           <t>Pamba</t>
         </is>
       </c>
-      <c r="I14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="L14" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K14" t="inlineStr">
+      <c r="M14" t="inlineStr">
         <is>
           <t>Nkilifa</t>
         </is>
       </c>
-      <c r="L14" t="inlineStr">
+      <c r="N14" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M14" t="inlineStr">
+      <c r="O14" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N14" t="inlineStr">
+      <c r="P14" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>Maswa</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>Busilili</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>100</v>
-      </c>
-      <c r="R14" t="b">
+      <c r="S14" t="b">
         <v>1</v>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="T14" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U14" t="b">
+      <c r="V14" t="b">
         <v>0</v>
-      </c>
-      <c r="V14" t="n">
-        <v>2002</v>
       </c>
       <c r="W14" t="inlineStr">
         <is>
@@ -2964,93 +2964,93 @@
         <v>50495</v>
       </c>
       <c r="B15" t="n">
-        <v>10</v>
-      </c>
-      <c r="C15" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1368</v>
+      </c>
+      <c r="D15" t="n">
+        <v>37.09257412</v>
+      </c>
+      <c r="E15" t="n">
+        <v>-3.1817833</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1</v>
+      </c>
+      <c r="G15" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H15" t="inlineStr">
         <is>
           <t>lawatefuka water supply</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>1410</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>lawatefuka water supply</t>
         </is>
       </c>
-      <c r="F15" t="n">
-        <v>51.966106955</v>
-      </c>
-      <c r="G15" t="n">
-        <v>8.973514420000001</v>
-      </c>
-      <c r="H15" t="inlineStr">
+      <c r="J15" t="inlineStr">
         <is>
           <t>Kwa John Izack Mmari</t>
         </is>
       </c>
-      <c r="I15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="L15" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
+      <c r="M15" t="inlineStr">
         <is>
           <t>Omarini</t>
         </is>
       </c>
-      <c r="L15" t="inlineStr">
+      <c r="N15" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
+      <c r="O15" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="Q15" t="inlineStr">
         <is>
           <t>Siha</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
+      <c r="R15" t="inlineStr">
         <is>
           <t>Siha Kaskazini</t>
         </is>
       </c>
-      <c r="Q15" t="n">
+      <c r="S15" t="b">
         <v>1</v>
       </c>
-      <c r="R15" t="b">
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Water Board</t>
+        </is>
+      </c>
+      <c r="V15" t="b">
         <v>1</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr">
-        <is>
-          <t>Water Board</t>
-        </is>
-      </c>
-      <c r="U15" t="b">
-        <v>1</v>
-      </c>
-      <c r="V15" t="n">
-        <v>2009</v>
       </c>
       <c r="W15" t="inlineStr">
         <is>
@@ -3143,93 +3143,93 @@
         <v>53752</v>
       </c>
       <c r="B16" t="n">
-        <v>10</v>
-      </c>
-      <c r="C16" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>34.36407268</v>
+      </c>
+      <c r="E16" t="n">
+        <v>-3.62933335</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr">
         <is>
           <t>biore</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>42</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>wedeco</t>
         </is>
       </c>
-      <c r="F16" t="n">
-        <v>49.237605515</v>
-      </c>
-      <c r="G16" t="n">
-        <v>8.525964370000001</v>
-      </c>
-      <c r="H16" t="inlineStr">
+      <c r="J16" t="inlineStr">
         <is>
           <t>Mwabasabi</t>
         </is>
       </c>
-      <c r="I16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Mwabasabi</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>Meatu</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>Nkoma</t>
         </is>
       </c>
-      <c r="Q16" t="n">
-        <v>100</v>
-      </c>
-      <c r="R16" t="b">
+      <c r="S16" t="b">
         <v>1</v>
       </c>
-      <c r="S16" t="inlineStr">
+      <c r="T16" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U16" t="b">
+      <c r="V16" t="b">
         <v>1</v>
-      </c>
-      <c r="V16" t="n">
-        <v>2002</v>
       </c>
       <c r="W16" t="inlineStr">
         <is>
@@ -3322,93 +3322,93 @@
         <v>61848</v>
       </c>
       <c r="B17" t="n">
-        <v>10</v>
-      </c>
-      <c r="C17" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D17" t="n">
+        <v>31.44412134</v>
+      </c>
+      <c r="E17" t="n">
+        <v>-8.27496163</v>
+      </c>
+      <c r="F17" t="n">
+        <v>200</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1991</v>
+      </c>
+      <c r="H17" t="inlineStr">
         <is>
           <t>rudep</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F17" t="n">
-        <v>46.317654175</v>
-      </c>
-      <c r="G17" t="n">
-        <v>3.88033609</v>
-      </c>
-      <c r="H17" t="inlineStr">
+      <c r="J17" t="inlineStr">
         <is>
           <t>Kwa Juvenal Ching'Ombe</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="L17" t="inlineStr">
         <is>
           <t>Lake Tanganyika</t>
         </is>
       </c>
-      <c r="K17" t="inlineStr">
+      <c r="M17" t="inlineStr">
         <is>
           <t>Tunzi</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
+      <c r="N17" t="inlineStr">
         <is>
           <t>Rukwa</t>
         </is>
       </c>
-      <c r="M17" t="inlineStr">
+      <c r="O17" t="inlineStr">
         <is>
           <t>15</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="P17" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="Q17" t="inlineStr">
         <is>
           <t>Sumbawanga Rural</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="R17" t="inlineStr">
         <is>
           <t>Mkowe</t>
         </is>
       </c>
-      <c r="Q17" t="n">
-        <v>200</v>
-      </c>
-      <c r="R17" t="b">
+      <c r="S17" t="b">
         <v>1</v>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="T17" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U17" t="b">
+      <c r="V17" t="b">
         <v>0</v>
-      </c>
-      <c r="V17" t="n">
-        <v>1991</v>
       </c>
       <c r="W17" t="inlineStr">
         <is>
@@ -3501,93 +3501,93 @@
         <v>48451</v>
       </c>
       <c r="B18" t="n">
-        <v>510</v>
-      </c>
-      <c r="C18" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1703</v>
+      </c>
+      <c r="D18" t="n">
+        <v>34.64243884</v>
+      </c>
+      <c r="E18" t="n">
+        <v>-9.106184580000001</v>
+      </c>
+      <c r="F18" t="n">
+        <v>35</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H18" t="inlineStr">
         <is>
           <t>unicef</t>
         </is>
       </c>
-      <c r="D18" t="n">
-        <v>1745</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F18" t="n">
-        <v>49.515971675</v>
-      </c>
-      <c r="G18" t="n">
-        <v>3.049113139999999</v>
-      </c>
-      <c r="H18" t="inlineStr">
+      <c r="J18" t="inlineStr">
         <is>
           <t>Kwa John Mtenzi</t>
         </is>
       </c>
-      <c r="I18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="L18" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K18" t="inlineStr">
+      <c r="M18" t="inlineStr">
         <is>
           <t>Kidudumo</t>
         </is>
       </c>
-      <c r="L18" t="inlineStr">
+      <c r="N18" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M18" t="inlineStr">
+      <c r="O18" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N18" t="inlineStr">
+      <c r="P18" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O18" t="inlineStr">
+      <c r="Q18" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P18" t="inlineStr">
+      <c r="R18" t="inlineStr">
         <is>
           <t>Mdandu</t>
         </is>
       </c>
-      <c r="Q18" t="n">
-        <v>35</v>
-      </c>
-      <c r="R18" t="b">
+      <c r="S18" t="b">
         <v>1</v>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="T18" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T18" t="inlineStr">
+      <c r="U18" t="inlineStr">
         <is>
           <t>WUA</t>
         </is>
       </c>
-      <c r="U18" t="b">
+      <c r="V18" t="b">
         <v>1</v>
-      </c>
-      <c r="V18" t="n">
-        <v>1978</v>
       </c>
       <c r="W18" t="inlineStr">
         <is>
@@ -3680,93 +3680,93 @@
         <v>58155</v>
       </c>
       <c r="B19" t="n">
-        <v>10</v>
-      </c>
-      <c r="C19" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C19" t="n">
+        <v>1656</v>
+      </c>
+      <c r="D19" t="n">
+        <v>34.56926611</v>
+      </c>
+      <c r="E19" t="n">
+        <v>-9.08551497</v>
+      </c>
+      <c r="F19" t="n">
+        <v>50</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H19" t="inlineStr">
         <is>
           <t>unicef</t>
         </is>
       </c>
-      <c r="D19" t="n">
-        <v>1698</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F19" t="n">
-        <v>49.442798945</v>
-      </c>
-      <c r="G19" t="n">
-        <v>3.06978275</v>
-      </c>
-      <c r="H19" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Kwa Rose Chaula</t>
         </is>
       </c>
-      <c r="I19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="L19" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K19" t="inlineStr">
+      <c r="M19" t="inlineStr">
         <is>
           <t>Yeriko</t>
         </is>
       </c>
-      <c r="L19" t="inlineStr">
+      <c r="N19" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M19" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N19" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O19" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P19" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>Usuka</t>
         </is>
       </c>
-      <c r="Q19" t="n">
-        <v>50</v>
-      </c>
-      <c r="R19" t="b">
+      <c r="S19" t="b">
         <v>1</v>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="T19" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T19" t="inlineStr">
+      <c r="U19" t="inlineStr">
         <is>
           <t>WUA</t>
         </is>
       </c>
-      <c r="U19" t="b">
+      <c r="V19" t="b">
         <v>1</v>
-      </c>
-      <c r="V19" t="n">
-        <v>1978</v>
       </c>
       <c r="W19" t="inlineStr">
         <is>
@@ -3859,95 +3859,95 @@
         <v>34169</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
-      </c>
-      <c r="C20" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1162</v>
+      </c>
+      <c r="D20" t="n">
+        <v>32.92015381</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-1.94786801</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1999</v>
+      </c>
+      <c r="H20" t="inlineStr">
         <is>
           <t>hesawa</t>
         </is>
       </c>
-      <c r="D20" t="n">
-        <v>1204</v>
-      </c>
-      <c r="E20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F20" t="n">
-        <v>47.793686645</v>
-      </c>
-      <c r="G20" t="n">
-        <v>10.20742971</v>
-      </c>
-      <c r="H20" t="inlineStr">
+      <c r="J20" t="inlineStr">
         <is>
           <t>Ngomee</t>
         </is>
       </c>
-      <c r="I20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="L20" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K20" t="inlineStr">
+      <c r="M20" t="inlineStr">
         <is>
           <t>Center</t>
         </is>
       </c>
-      <c r="L20" t="inlineStr">
+      <c r="N20" t="inlineStr">
         <is>
           <t>Mwanza</t>
         </is>
       </c>
-      <c r="M20" t="inlineStr">
+      <c r="O20" t="inlineStr">
         <is>
           <t>19</t>
         </is>
       </c>
-      <c r="N20" t="inlineStr">
+      <c r="P20" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O20" t="inlineStr">
+      <c r="Q20" t="inlineStr">
         <is>
           <t>Ukerewe</t>
         </is>
       </c>
-      <c r="P20" t="inlineStr">
+      <c r="R20" t="inlineStr">
         <is>
           <t>Ilangala</t>
         </is>
       </c>
-      <c r="Q20" t="n">
-        <v>1000</v>
-      </c>
-      <c r="R20" t="inlineStr">
+      <c r="S20" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="S20" t="inlineStr">
+      <c r="T20" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T20" t="inlineStr">
+      <c r="U20" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U20" t="b">
+      <c r="V20" t="b">
         <v>1</v>
-      </c>
-      <c r="V20" t="n">
-        <v>1999</v>
       </c>
       <c r="W20" t="inlineStr">
         <is>
@@ -4040,93 +4040,93 @@
         <v>18274</v>
       </c>
       <c r="B21" t="n">
-        <v>510</v>
-      </c>
-      <c r="C21" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1763</v>
+      </c>
+      <c r="D21" t="n">
+        <v>34.50896732</v>
+      </c>
+      <c r="E21" t="n">
+        <v>-9.8944125</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H21" t="inlineStr">
         <is>
           <t>danida</t>
         </is>
       </c>
-      <c r="D21" t="n">
-        <v>1805</v>
-      </c>
-      <c r="E21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>danida</t>
         </is>
       </c>
-      <c r="F21" t="n">
-        <v>49.382500155</v>
-      </c>
-      <c r="G21" t="n">
-        <v>2.26088522</v>
-      </c>
-      <c r="H21" t="inlineStr">
+      <c r="J21" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="L21" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K21" t="inlineStr">
+      <c r="M21" t="inlineStr">
         <is>
           <t>Manyanya</t>
         </is>
       </c>
-      <c r="L21" t="inlineStr">
+      <c r="N21" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M21" t="inlineStr">
+      <c r="O21" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N21" t="inlineStr">
+      <c r="P21" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O21" t="inlineStr">
+      <c r="Q21" t="inlineStr">
         <is>
           <t>Ludewa</t>
         </is>
       </c>
-      <c r="P21" t="inlineStr">
+      <c r="R21" t="inlineStr">
         <is>
           <t>Mawengi</t>
         </is>
       </c>
-      <c r="Q21" t="n">
+      <c r="S21" t="b">
         <v>1</v>
       </c>
-      <c r="R21" t="b">
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>VWC</t>
+        </is>
+      </c>
+      <c r="V21" t="b">
         <v>1</v>
-      </c>
-      <c r="S21" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T21" t="inlineStr">
-        <is>
-          <t>VWC</t>
-        </is>
-      </c>
-      <c r="U21" t="b">
-        <v>1</v>
-      </c>
-      <c r="V21" t="n">
-        <v>1992</v>
       </c>
       <c r="W21" t="inlineStr">
         <is>
@@ -4219,93 +4219,93 @@
         <v>48375</v>
       </c>
       <c r="B22" t="n">
-        <v>210</v>
-      </c>
-      <c r="C22" t="inlineStr">
+        <v>200</v>
+      </c>
+      <c r="C22" t="n">
+        <v>2216</v>
+      </c>
+      <c r="D22" t="n">
+        <v>34.47342985</v>
+      </c>
+      <c r="E22" t="n">
+        <v>-9.59498965</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H22" t="inlineStr">
         <is>
           <t>twe</t>
         </is>
       </c>
-      <c r="D22" t="n">
-        <v>2258</v>
-      </c>
-      <c r="E22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>twe</t>
         </is>
       </c>
-      <c r="F22" t="n">
-        <v>49.346962685</v>
-      </c>
-      <c r="G22" t="n">
-        <v>2.56030807</v>
-      </c>
-      <c r="H22" t="inlineStr">
+      <c r="J22" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="L22" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K22" t="inlineStr">
+      <c r="M22" t="inlineStr">
         <is>
           <t>Majengo</t>
         </is>
       </c>
-      <c r="L22" t="inlineStr">
+      <c r="N22" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M22" t="inlineStr">
+      <c r="O22" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N22" t="inlineStr">
+      <c r="P22" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O22" t="inlineStr">
+      <c r="Q22" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P22" t="inlineStr">
+      <c r="R22" t="inlineStr">
         <is>
           <t>Matola</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
-      <c r="R22" t="b">
+      <c r="S22" t="b">
         <v>1</v>
       </c>
-      <c r="S22" t="inlineStr">
+      <c r="T22" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T22" t="inlineStr">
+      <c r="U22" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U22" t="b">
+      <c r="V22" t="b">
         <v>0</v>
-      </c>
-      <c r="V22" t="n">
-        <v>2008</v>
       </c>
       <c r="W22" t="inlineStr">
         <is>
@@ -4398,95 +4398,95 @@
         <v>6091</v>
       </c>
       <c r="B23" t="n">
-        <v>10</v>
-      </c>
-      <c r="C23" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>-2e-08</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
+      <c r="H23" t="inlineStr">
         <is>
           <t>dwsp</t>
         </is>
       </c>
-      <c r="D23" t="n">
-        <v>42</v>
-      </c>
-      <c r="E23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F23" t="n">
-        <v>14.873532835</v>
-      </c>
-      <c r="G23" t="n">
-        <v>12.1552977</v>
-      </c>
-      <c r="H23" t="inlineStr">
+      <c r="J23" t="inlineStr">
         <is>
           <t>Muungano</t>
         </is>
       </c>
-      <c r="I23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="L23" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K23" t="inlineStr">
+      <c r="M23" t="inlineStr">
         <is>
           <t>Ibabachegu</t>
         </is>
       </c>
-      <c r="L23" t="inlineStr">
+      <c r="N23" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M23" t="inlineStr">
+      <c r="O23" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N23" t="inlineStr">
+      <c r="P23" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O23" t="inlineStr">
+      <c r="Q23" t="inlineStr">
         <is>
           <t>Bariadi</t>
         </is>
       </c>
-      <c r="P23" t="inlineStr">
+      <c r="R23" t="inlineStr">
         <is>
           <t>Ikungulyabashashi</t>
         </is>
       </c>
-      <c r="Q23" t="n">
-        <v>100</v>
-      </c>
-      <c r="R23" t="inlineStr">
+      <c r="S23" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="S23" t="inlineStr">
+      <c r="T23" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T23" t="inlineStr">
+      <c r="U23" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U23" t="b">
+      <c r="V23" t="b">
         <v>0</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2002</v>
       </c>
       <c r="W23" t="inlineStr">
         <is>
@@ -4579,93 +4579,93 @@
         <v>58500</v>
       </c>
       <c r="B24" t="n">
-        <v>10</v>
-      </c>
-      <c r="C24" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1510</v>
+      </c>
+      <c r="D24" t="n">
+        <v>34.58690108</v>
+      </c>
+      <c r="E24" t="n">
+        <v>-8.98001429</v>
+      </c>
+      <c r="F24" t="n">
+        <v>350</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1978</v>
+      </c>
+      <c r="H24" t="inlineStr">
         <is>
           <t>unicef</t>
         </is>
       </c>
-      <c r="D24" t="n">
-        <v>1552</v>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F24" t="n">
-        <v>49.460433915</v>
-      </c>
-      <c r="G24" t="n">
-        <v>3.17528343</v>
-      </c>
-      <c r="H24" t="inlineStr">
+      <c r="J24" t="inlineStr">
         <is>
           <t>Shuleni</t>
         </is>
       </c>
-      <c r="I24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="L24" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K24" t="inlineStr">
+      <c r="M24" t="inlineStr">
         <is>
           <t>Mkanivega</t>
         </is>
       </c>
-      <c r="L24" t="inlineStr">
+      <c r="N24" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M24" t="inlineStr">
+      <c r="O24" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N24" t="inlineStr">
+      <c r="P24" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O24" t="inlineStr">
+      <c r="Q24" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P24" t="inlineStr">
+      <c r="R24" t="inlineStr">
         <is>
           <t>Usuka</t>
         </is>
       </c>
-      <c r="Q24" t="n">
-        <v>350</v>
-      </c>
-      <c r="R24" t="b">
+      <c r="S24" t="b">
         <v>1</v>
       </c>
-      <c r="S24" t="inlineStr">
+      <c r="T24" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T24" t="inlineStr">
+      <c r="U24" t="inlineStr">
         <is>
           <t>WUA</t>
         </is>
       </c>
-      <c r="U24" t="b">
+      <c r="V24" t="b">
         <v>1</v>
-      </c>
-      <c r="V24" t="n">
-        <v>1978</v>
       </c>
       <c r="W24" t="inlineStr">
         <is>
@@ -4758,93 +4758,93 @@
         <v>37862</v>
       </c>
       <c r="B25" t="n">
-        <v>510</v>
-      </c>
-      <c r="C25" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C25" t="n">
+        <v>672</v>
+      </c>
+      <c r="D25" t="n">
+        <v>37.94002949</v>
+      </c>
+      <c r="E25" t="n">
+        <v>-4.12559468</v>
+      </c>
+      <c r="F25" t="n">
+        <v>210</v>
+      </c>
+      <c r="G25" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H25" t="inlineStr">
         <is>
           <t>isf</t>
         </is>
       </c>
-      <c r="D25" t="n">
-        <v>714</v>
-      </c>
-      <c r="E25" t="inlineStr">
+      <c r="I25" t="inlineStr">
         <is>
           <t>isf</t>
         </is>
       </c>
-      <c r="F25" t="n">
-        <v>52.813562325</v>
-      </c>
-      <c r="G25" t="n">
-        <v>8.029703040000001</v>
-      </c>
-      <c r="H25" t="inlineStr">
+      <c r="J25" t="inlineStr">
         <is>
           <t>Kinonga</t>
         </is>
       </c>
-      <c r="I25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="L25" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K25" t="inlineStr">
+      <c r="M25" t="inlineStr">
         <is>
           <t>Mkonga Juu</t>
         </is>
       </c>
-      <c r="L25" t="inlineStr">
+      <c r="N25" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M25" t="inlineStr">
+      <c r="O25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N25" t="inlineStr">
+      <c r="P25" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O25" t="inlineStr">
+      <c r="Q25" t="inlineStr">
         <is>
           <t>Same</t>
         </is>
       </c>
-      <c r="P25" t="inlineStr">
+      <c r="R25" t="inlineStr">
         <is>
           <t>Kisiwani</t>
         </is>
       </c>
-      <c r="Q25" t="n">
-        <v>210</v>
-      </c>
-      <c r="R25" t="b">
+      <c r="S25" t="b">
         <v>1</v>
       </c>
-      <c r="S25" t="inlineStr">
+      <c r="T25" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T25" t="inlineStr">
+      <c r="U25" t="inlineStr">
         <is>
           <t>Water authority</t>
         </is>
       </c>
-      <c r="U25" t="b">
+      <c r="V25" t="b">
         <v>1</v>
-      </c>
-      <c r="V25" t="n">
-        <v>2011</v>
       </c>
       <c r="W25" t="inlineStr">
         <is>
@@ -4937,93 +4937,93 @@
         <v>51058</v>
       </c>
       <c r="B26" t="n">
-        <v>10</v>
-      </c>
-      <c r="C26" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1645</v>
+      </c>
+      <c r="D26" t="n">
+        <v>29.74706567</v>
+      </c>
+      <c r="E26" t="n">
+        <v>-4.49556758</v>
+      </c>
+      <c r="F26" t="n">
+        <v>156</v>
+      </c>
+      <c r="G26" t="n">
+        <v>2009</v>
+      </c>
+      <c r="H26" t="inlineStr">
         <is>
           <t>african development bank</t>
         </is>
       </c>
-      <c r="D26" t="n">
-        <v>1687</v>
-      </c>
-      <c r="E26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F26" t="n">
-        <v>44.620598505</v>
-      </c>
-      <c r="G26" t="n">
-        <v>7.65973014</v>
-      </c>
-      <c r="H26" t="inlineStr">
+      <c r="J26" t="inlineStr">
         <is>
           <t>Kamsasa</t>
         </is>
       </c>
-      <c r="I26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="L26" t="inlineStr">
         <is>
           <t>Lake Tanganyika</t>
         </is>
       </c>
-      <c r="K26" t="inlineStr">
+      <c r="M26" t="inlineStr">
         <is>
           <t>Msasa</t>
         </is>
       </c>
-      <c r="L26" t="inlineStr">
+      <c r="N26" t="inlineStr">
         <is>
           <t>Kigoma</t>
         </is>
       </c>
-      <c r="M26" t="inlineStr">
+      <c r="O26" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N26" t="inlineStr">
+      <c r="P26" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O26" t="inlineStr">
+      <c r="Q26" t="inlineStr">
         <is>
           <t>Kigoma Rural</t>
         </is>
       </c>
-      <c r="P26" t="inlineStr">
+      <c r="R26" t="inlineStr">
         <is>
           <t>Mkigo</t>
         </is>
       </c>
-      <c r="Q26" t="n">
-        <v>156</v>
-      </c>
-      <c r="R26" t="b">
+      <c r="S26" t="b">
         <v>0</v>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="T26" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T26" t="inlineStr">
+      <c r="U26" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U26" t="b">
+      <c r="V26" t="b">
         <v>1</v>
-      </c>
-      <c r="V26" t="n">
-        <v>2009</v>
       </c>
       <c r="W26" t="inlineStr">
         <is>
@@ -5116,93 +5116,93 @@
         <v>22308</v>
       </c>
       <c r="B27" t="n">
-        <v>10</v>
-      </c>
-      <c r="C27" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C27" t="n">
+        <v>1273</v>
+      </c>
+      <c r="D27" t="n">
+        <v>37.42275132</v>
+      </c>
+      <c r="E27" t="n">
+        <v>-3.31753648</v>
+      </c>
+      <c r="F27" t="n">
+        <v>140</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1974</v>
+      </c>
+      <c r="H27" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D27" t="n">
-        <v>1315</v>
-      </c>
-      <c r="E27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F27" t="n">
-        <v>52.296284155</v>
-      </c>
-      <c r="G27" t="n">
-        <v>8.837761240000001</v>
-      </c>
-      <c r="H27" t="inlineStr">
+      <c r="J27" t="inlineStr">
         <is>
           <t>Kwa Tukai</t>
         </is>
       </c>
-      <c r="I27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="L27" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K27" t="inlineStr">
+      <c r="M27" t="inlineStr">
         <is>
           <t>Kitereni</t>
         </is>
       </c>
-      <c r="L27" t="inlineStr">
+      <c r="N27" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M27" t="inlineStr">
+      <c r="O27" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N27" t="inlineStr">
+      <c r="P27" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O27" t="inlineStr">
+      <c r="Q27" t="inlineStr">
         <is>
           <t>Moshi Rural</t>
         </is>
       </c>
-      <c r="P27" t="inlineStr">
+      <c r="R27" t="inlineStr">
         <is>
           <t>Kimochi</t>
         </is>
       </c>
-      <c r="Q27" t="n">
-        <v>140</v>
-      </c>
-      <c r="R27" t="b">
+      <c r="S27" t="b">
         <v>1</v>
       </c>
-      <c r="S27" t="inlineStr">
+      <c r="T27" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T27" t="inlineStr">
+      <c r="U27" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U27" t="b">
+      <c r="V27" t="b">
         <v>1</v>
-      </c>
-      <c r="V27" t="n">
-        <v>1974</v>
       </c>
       <c r="W27" t="inlineStr">
         <is>
@@ -5295,93 +5295,93 @@
         <v>55012</v>
       </c>
       <c r="B28" t="n">
-        <v>510</v>
-      </c>
-      <c r="C28" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C28" t="n">
+        <v>200</v>
+      </c>
+      <c r="D28" t="n">
+        <v>39.37077651</v>
+      </c>
+      <c r="E28" t="n">
+        <v>-9.94253166</v>
+      </c>
+      <c r="F28" t="n">
+        <v>260</v>
+      </c>
+      <c r="G28" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H28" t="inlineStr">
         <is>
           <t>sobodo</t>
         </is>
       </c>
-      <c r="D28" t="n">
-        <v>242</v>
-      </c>
-      <c r="E28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>kilolo star</t>
         </is>
       </c>
-      <c r="F28" t="n">
-        <v>54.244309345</v>
-      </c>
-      <c r="G28" t="n">
-        <v>2.21276606</v>
-      </c>
-      <c r="H28" t="inlineStr">
+      <c r="J28" t="inlineStr">
         <is>
           <t>Ruhoma Primary School</t>
         </is>
       </c>
-      <c r="I28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="L28" t="inlineStr">
         <is>
           <t>Ruvuma / Southern Coast</t>
         </is>
       </c>
-      <c r="K28" t="inlineStr">
+      <c r="M28" t="inlineStr">
         <is>
           <t>Shuleni</t>
         </is>
       </c>
-      <c r="L28" t="inlineStr">
+      <c r="N28" t="inlineStr">
         <is>
           <t>Lindi</t>
         </is>
       </c>
-      <c r="M28" t="inlineStr">
+      <c r="O28" t="inlineStr">
         <is>
           <t>80</t>
         </is>
       </c>
-      <c r="N28" t="inlineStr">
+      <c r="P28" t="inlineStr">
         <is>
           <t>23</t>
         </is>
       </c>
-      <c r="O28" t="inlineStr">
+      <c r="Q28" t="inlineStr">
         <is>
           <t>Lindi Rural</t>
         </is>
       </c>
-      <c r="P28" t="inlineStr">
+      <c r="R28" t="inlineStr">
         <is>
           <t>Rutamba</t>
         </is>
       </c>
-      <c r="Q28" t="n">
-        <v>260</v>
-      </c>
-      <c r="R28" t="b">
+      <c r="S28" t="b">
         <v>0</v>
       </c>
-      <c r="S28" t="inlineStr">
+      <c r="T28" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T28" t="inlineStr">
+      <c r="U28" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U28" t="b">
+      <c r="V28" t="b">
         <v>0</v>
-      </c>
-      <c r="V28" t="n">
-        <v>2011</v>
       </c>
       <c r="W28" t="inlineStr">
         <is>
@@ -5474,93 +5474,93 @@
         <v>20145</v>
       </c>
       <c r="B29" t="n">
-        <v>10</v>
-      </c>
-      <c r="C29" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0</v>
+      </c>
+      <c r="D29" t="n">
+        <v>31.10425712</v>
+      </c>
+      <c r="E29" t="n">
+        <v>-1.73536124</v>
+      </c>
+      <c r="F29" t="n">
+        <v>0</v>
+      </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
+      <c r="H29" t="inlineStr">
         <is>
           <t>hesawa</t>
         </is>
       </c>
-      <c r="D29" t="n">
-        <v>42</v>
-      </c>
-      <c r="E29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F29" t="n">
-        <v>45.977789955</v>
-      </c>
-      <c r="G29" t="n">
-        <v>10.41993648</v>
-      </c>
-      <c r="H29" t="inlineStr">
+      <c r="J29" t="inlineStr">
         <is>
           <t>Kwawilliam</t>
         </is>
       </c>
-      <c r="I29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="L29" t="inlineStr">
         <is>
           <t>Lake Victoria</t>
         </is>
       </c>
-      <c r="K29" t="inlineStr">
+      <c r="M29" t="inlineStr">
         <is>
           <t>Chakahaya</t>
         </is>
       </c>
-      <c r="L29" t="inlineStr">
+      <c r="N29" t="inlineStr">
         <is>
           <t>Kagera</t>
         </is>
       </c>
-      <c r="M29" t="inlineStr">
+      <c r="O29" t="inlineStr">
         <is>
           <t>18</t>
         </is>
       </c>
-      <c r="N29" t="inlineStr">
+      <c r="P29" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O29" t="inlineStr">
+      <c r="Q29" t="inlineStr">
         <is>
           <t>Karagwe</t>
         </is>
       </c>
-      <c r="P29" t="inlineStr">
+      <c r="R29" t="inlineStr">
         <is>
           <t>Nyaishozi</t>
         </is>
       </c>
-      <c r="Q29" t="n">
-        <v>100</v>
-      </c>
-      <c r="R29" t="b">
+      <c r="S29" t="b">
         <v>1</v>
       </c>
-      <c r="S29" t="inlineStr">
+      <c r="T29" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T29" t="inlineStr">
+      <c r="U29" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U29" t="b">
+      <c r="V29" t="b">
         <v>1</v>
-      </c>
-      <c r="V29" t="n">
-        <v>2002</v>
       </c>
       <c r="W29" t="inlineStr">
         <is>
@@ -5653,93 +5653,93 @@
         <v>19685</v>
       </c>
       <c r="B30" t="n">
-        <v>10</v>
-      </c>
-      <c r="C30" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C30" t="n">
+        <v>1443</v>
+      </c>
+      <c r="D30" t="n">
+        <v>37.61112572</v>
+      </c>
+      <c r="E30" t="n">
+        <v>-3.2635263</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1</v>
+      </c>
+      <c r="G30" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H30" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D30" t="n">
-        <v>1485</v>
-      </c>
-      <c r="E30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>district council</t>
         </is>
       </c>
-      <c r="F30" t="n">
-        <v>52.484658555</v>
-      </c>
-      <c r="G30" t="n">
-        <v>8.89177142</v>
-      </c>
-      <c r="H30" t="inlineStr">
+      <c r="J30" t="inlineStr">
         <is>
           <t>Kwa Kibakaya</t>
         </is>
       </c>
-      <c r="I30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="L30" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K30" t="inlineStr">
+      <c r="M30" t="inlineStr">
         <is>
           <t>Kiyao</t>
         </is>
       </c>
-      <c r="L30" t="inlineStr">
+      <c r="N30" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M30" t="inlineStr">
+      <c r="O30" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N30" t="inlineStr">
+      <c r="P30" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O30" t="inlineStr">
+      <c r="Q30" t="inlineStr">
         <is>
           <t>Rombo</t>
         </is>
       </c>
-      <c r="P30" t="inlineStr">
+      <c r="R30" t="inlineStr">
         <is>
           <t>Mengwe Manda</t>
         </is>
       </c>
-      <c r="Q30" t="n">
+      <c r="S30" t="b">
         <v>1</v>
       </c>
-      <c r="R30" t="b">
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Company</t>
+        </is>
+      </c>
+      <c r="V30" t="b">
         <v>1</v>
-      </c>
-      <c r="S30" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T30" t="inlineStr">
-        <is>
-          <t>Company</t>
-        </is>
-      </c>
-      <c r="U30" t="b">
-        <v>1</v>
-      </c>
-      <c r="V30" t="n">
-        <v>2000</v>
       </c>
       <c r="W30" t="inlineStr">
         <is>
@@ -5832,93 +5832,93 @@
         <v>69124</v>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
-      </c>
-      <c r="C31" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C31" t="n">
+        <v>1256</v>
+      </c>
+      <c r="D31" t="n">
+        <v>37.06168837</v>
+      </c>
+      <c r="E31" t="n">
+        <v>-3.19198926</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1</v>
+      </c>
+      <c r="G31" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H31" t="inlineStr">
         <is>
           <t>lawatefuka water supply</t>
         </is>
       </c>
-      <c r="D31" t="n">
-        <v>1298</v>
-      </c>
-      <c r="E31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>lawatefuka water supply</t>
         </is>
       </c>
-      <c r="F31" t="n">
-        <v>51.935221205</v>
-      </c>
-      <c r="G31" t="n">
-        <v>8.96330846</v>
-      </c>
-      <c r="H31" t="inlineStr">
+      <c r="J31" t="inlineStr">
         <is>
           <t>Kwa Willium Kinda</t>
         </is>
       </c>
-      <c r="I31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="L31" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K31" t="inlineStr">
+      <c r="M31" t="inlineStr">
         <is>
           <t>Merali</t>
         </is>
       </c>
-      <c r="L31" t="inlineStr">
+      <c r="N31" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M31" t="inlineStr">
+      <c r="O31" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N31" t="inlineStr">
+      <c r="P31" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O31" t="inlineStr">
+      <c r="Q31" t="inlineStr">
         <is>
           <t>Siha</t>
         </is>
       </c>
-      <c r="P31" t="inlineStr">
+      <c r="R31" t="inlineStr">
         <is>
           <t>Siha Kati</t>
         </is>
       </c>
-      <c r="Q31" t="n">
+      <c r="S31" t="b">
         <v>1</v>
       </c>
-      <c r="R31" t="b">
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>GeoData Consultants Ltd</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Water Board</t>
+        </is>
+      </c>
+      <c r="V31" t="b">
         <v>1</v>
-      </c>
-      <c r="S31" t="inlineStr">
-        <is>
-          <t>GeoData Consultants Ltd</t>
-        </is>
-      </c>
-      <c r="T31" t="inlineStr">
-        <is>
-          <t>Water Board</t>
-        </is>
-      </c>
-      <c r="U31" t="b">
-        <v>1</v>
-      </c>
-      <c r="V31" t="n">
-        <v>2002</v>
       </c>
       <c r="W31" t="inlineStr">
         <is>
@@ -6011,93 +6011,93 @@
         <v>46804</v>
       </c>
       <c r="B32" t="n">
-        <v>10</v>
-      </c>
-      <c r="C32" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0</v>
+      </c>
+      <c r="D32" t="n">
+        <v>36.1083125</v>
+      </c>
+      <c r="E32" t="n">
+        <v>-5.79099991</v>
+      </c>
+      <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
+        <v>0</v>
+      </c>
+      <c r="H32" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="D32" t="n">
-        <v>42</v>
-      </c>
-      <c r="E32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>water</t>
         </is>
       </c>
-      <c r="F32" t="n">
-        <v>50.981845335</v>
-      </c>
-      <c r="G32" t="n">
-        <v>6.36429781</v>
-      </c>
-      <c r="H32" t="inlineStr">
+      <c r="J32" t="inlineStr">
         <is>
           <t>Ngosi</t>
         </is>
       </c>
-      <c r="I32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="L32" t="inlineStr">
         <is>
           <t>Wami / Ruvu</t>
         </is>
       </c>
-      <c r="K32" t="inlineStr">
+      <c r="M32" t="inlineStr">
         <is>
           <t>Karume</t>
         </is>
       </c>
-      <c r="L32" t="inlineStr">
+      <c r="N32" t="inlineStr">
         <is>
           <t>Dodoma</t>
         </is>
       </c>
-      <c r="M32" t="inlineStr">
+      <c r="O32" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N32" t="inlineStr">
+      <c r="P32" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O32" t="inlineStr">
+      <c r="Q32" t="inlineStr">
         <is>
           <t>Chamwino</t>
         </is>
       </c>
-      <c r="P32" t="inlineStr">
+      <c r="R32" t="inlineStr">
         <is>
           <t>Dabalo</t>
         </is>
       </c>
-      <c r="Q32" t="n">
-        <v>100</v>
-      </c>
-      <c r="R32" t="b">
+      <c r="S32" t="b">
         <v>1</v>
       </c>
-      <c r="S32" t="inlineStr">
+      <c r="T32" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T32" t="inlineStr">
+      <c r="U32" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U32" t="b">
+      <c r="V32" t="b">
         <v>1</v>
-      </c>
-      <c r="V32" t="n">
-        <v>2002</v>
       </c>
       <c r="W32" t="inlineStr">
         <is>
@@ -6190,93 +6190,93 @@
         <v>6696</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
-      </c>
-      <c r="C33" t="inlineStr">
+        <v>50</v>
+      </c>
+      <c r="C33" t="n">
+        <v>180</v>
+      </c>
+      <c r="D33" t="n">
+        <v>38.36355454</v>
+      </c>
+      <c r="E33" t="n">
+        <v>-6.63610419</v>
+      </c>
+      <c r="F33" t="n">
+        <v>150</v>
+      </c>
+      <c r="G33" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H33" t="inlineStr">
         <is>
           <t>private</t>
         </is>
       </c>
-      <c r="D33" t="n">
-        <v>222</v>
-      </c>
-      <c r="E33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>wu</t>
         </is>
       </c>
-      <c r="F33" t="n">
-        <v>53.237087375</v>
-      </c>
-      <c r="G33" t="n">
-        <v>5.51919353</v>
-      </c>
-      <c r="H33" t="inlineStr">
+      <c r="J33" t="inlineStr">
         <is>
           <t>Kituo Cha Maziwa</t>
         </is>
       </c>
-      <c r="I33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="L33" t="inlineStr">
         <is>
           <t>Wami / Ruvu</t>
         </is>
       </c>
-      <c r="K33" t="inlineStr">
+      <c r="M33" t="inlineStr">
         <is>
           <t>Kudipera</t>
         </is>
       </c>
-      <c r="L33" t="inlineStr">
+      <c r="N33" t="inlineStr">
         <is>
           <t>Pwani</t>
         </is>
       </c>
-      <c r="M33" t="inlineStr">
+      <c r="O33" t="inlineStr">
         <is>
           <t>6</t>
         </is>
       </c>
-      <c r="N33" t="inlineStr">
+      <c r="P33" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O33" t="inlineStr">
+      <c r="Q33" t="inlineStr">
         <is>
           <t>Bagamoyo</t>
         </is>
       </c>
-      <c r="P33" t="inlineStr">
+      <c r="R33" t="inlineStr">
         <is>
           <t>Chalinze</t>
         </is>
       </c>
-      <c r="Q33" t="n">
-        <v>150</v>
-      </c>
-      <c r="R33" t="b">
+      <c r="S33" t="b">
         <v>0</v>
       </c>
-      <c r="S33" t="inlineStr">
+      <c r="T33" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T33" t="inlineStr">
+      <c r="U33" t="inlineStr">
         <is>
           <t>WUA</t>
         </is>
       </c>
-      <c r="U33" t="b">
+      <c r="V33" t="b">
         <v>1</v>
-      </c>
-      <c r="V33" t="n">
-        <v>2004</v>
       </c>
       <c r="W33" t="inlineStr">
         <is>
@@ -6369,93 +6369,93 @@
         <v>57238</v>
       </c>
       <c r="B34" t="n">
-        <v>10</v>
-      </c>
-      <c r="C34" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C34" t="n">
+        <v>1481</v>
+      </c>
+      <c r="D34" t="n">
+        <v>37.49233371</v>
+      </c>
+      <c r="E34" t="n">
+        <v>-3.29062725</v>
+      </c>
+      <c r="F34" t="n">
+        <v>180</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1972</v>
+      </c>
+      <c r="H34" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D34" t="n">
-        <v>1523</v>
-      </c>
-      <c r="E34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F34" t="n">
-        <v>52.365866545</v>
-      </c>
-      <c r="G34" t="n">
-        <v>8.86467047</v>
-      </c>
-      <c r="H34" t="inlineStr">
+      <c r="J34" t="inlineStr">
         <is>
           <t>Kwa Philip Lyimo</t>
         </is>
       </c>
-      <c r="I34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="L34" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K34" t="inlineStr">
+      <c r="M34" t="inlineStr">
         <is>
           <t>Mosheni</t>
         </is>
       </c>
-      <c r="L34" t="inlineStr">
+      <c r="N34" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M34" t="inlineStr">
+      <c r="O34" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N34" t="inlineStr">
+      <c r="P34" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O34" t="inlineStr">
+      <c r="Q34" t="inlineStr">
         <is>
           <t>Moshi Rural</t>
         </is>
       </c>
-      <c r="P34" t="inlineStr">
+      <c r="R34" t="inlineStr">
         <is>
           <t>Kilema  Kati</t>
         </is>
       </c>
-      <c r="Q34" t="n">
-        <v>180</v>
-      </c>
-      <c r="R34" t="b">
+      <c r="S34" t="b">
         <v>0</v>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="T34" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T34" t="inlineStr">
+      <c r="U34" t="inlineStr">
         <is>
           <t>Other</t>
         </is>
       </c>
-      <c r="U34" t="b">
+      <c r="V34" t="b">
         <v>1</v>
-      </c>
-      <c r="V34" t="n">
-        <v>1972</v>
       </c>
       <c r="W34" t="inlineStr">
         <is>
@@ -6548,93 +6548,93 @@
         <v>12402</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
-      </c>
-      <c r="C35" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C35" t="n">
+        <v>1638</v>
+      </c>
+      <c r="D35" t="n">
+        <v>34.47835586</v>
+      </c>
+      <c r="E35" t="n">
+        <v>-9.71590954</v>
+      </c>
+      <c r="F35" t="n">
+        <v>70</v>
+      </c>
+      <c r="G35" t="n">
+        <v>1992</v>
+      </c>
+      <c r="H35" t="inlineStr">
         <is>
           <t>undp</t>
         </is>
       </c>
-      <c r="D35" t="n">
-        <v>1680</v>
-      </c>
-      <c r="E35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F35" t="n">
-        <v>49.351888695</v>
-      </c>
-      <c r="G35" t="n">
-        <v>2.43938818</v>
-      </c>
-      <c r="H35" t="inlineStr">
+      <c r="J35" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="L35" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K35" t="inlineStr">
+      <c r="M35" t="inlineStr">
         <is>
           <t>Lupanga A</t>
         </is>
       </c>
-      <c r="L35" t="inlineStr">
+      <c r="N35" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M35" t="inlineStr">
+      <c r="O35" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N35" t="inlineStr">
+      <c r="P35" t="inlineStr">
         <is>
           <t>5</t>
         </is>
       </c>
-      <c r="O35" t="inlineStr">
+      <c r="Q35" t="inlineStr">
         <is>
           <t>Ludewa</t>
         </is>
       </c>
-      <c r="P35" t="inlineStr">
+      <c r="R35" t="inlineStr">
         <is>
           <t>Lupanga</t>
         </is>
       </c>
-      <c r="Q35" t="n">
-        <v>70</v>
-      </c>
-      <c r="R35" t="b">
+      <c r="S35" t="b">
         <v>1</v>
       </c>
-      <c r="S35" t="inlineStr">
+      <c r="T35" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T35" t="inlineStr">
+      <c r="U35" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U35" t="b">
+      <c r="V35" t="b">
         <v>0</v>
-      </c>
-      <c r="V35" t="n">
-        <v>1992</v>
       </c>
       <c r="W35" t="inlineStr">
         <is>
@@ -6727,93 +6727,93 @@
         <v>41583</v>
       </c>
       <c r="B36" t="n">
-        <v>10</v>
-      </c>
-      <c r="C36" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-41</v>
+      </c>
+      <c r="D36" t="n">
+        <v>39.81291224</v>
+      </c>
+      <c r="E36" t="n">
+        <v>-7.889986299999999</v>
+      </c>
+      <c r="F36" t="n">
+        <v>100</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="D36" t="n">
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>unknown</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Msikitini Wa Ijumaa</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Rufiji</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Kilombero B</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>Pwani</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>Mafia</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>Baleni</t>
+        </is>
+      </c>
+      <c r="S36" t="b">
         <v>1</v>
       </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>unknown</t>
-        </is>
-      </c>
-      <c r="F36" t="n">
-        <v>54.686445075</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4.265311420000002</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>Msikitini Wa Ijumaa</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>Rufiji</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>Kilombero B</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>Pwani</t>
-        </is>
-      </c>
-      <c r="M36" t="inlineStr">
-        <is>
-          <t>60</t>
-        </is>
-      </c>
-      <c r="N36" t="inlineStr">
-        <is>
-          <t>63</t>
-        </is>
-      </c>
-      <c r="O36" t="inlineStr">
-        <is>
-          <t>Mafia</t>
-        </is>
-      </c>
-      <c r="P36" t="inlineStr">
-        <is>
-          <t>Baleni</t>
-        </is>
-      </c>
-      <c r="Q36" t="n">
-        <v>100</v>
-      </c>
-      <c r="R36" t="b">
-        <v>1</v>
-      </c>
-      <c r="S36" t="inlineStr">
+      <c r="T36" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T36" t="inlineStr">
+      <c r="U36" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U36" t="b">
+      <c r="V36" t="b">
         <v>0</v>
-      </c>
-      <c r="V36" t="n">
-        <v>2002</v>
       </c>
       <c r="W36" t="inlineStr">
         <is>
@@ -6906,93 +6906,93 @@
         <v>57355</v>
       </c>
       <c r="B37" t="n">
-        <v>10</v>
-      </c>
-      <c r="C37" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C37" t="n">
+        <v>1546</v>
+      </c>
+      <c r="D37" t="n">
+        <v>36.61869946</v>
+      </c>
+      <c r="E37" t="n">
+        <v>-3.29300336</v>
+      </c>
+      <c r="F37" t="n">
+        <v>200</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H37" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="D37" t="n">
-        <v>1588</v>
-      </c>
-      <c r="E37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="F37" t="n">
-        <v>51.492232295</v>
-      </c>
-      <c r="G37" t="n">
-        <v>8.86229436</v>
-      </c>
-      <c r="H37" t="inlineStr">
+      <c r="J37" t="inlineStr">
         <is>
           <t>Sekondari</t>
         </is>
       </c>
-      <c r="I37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="L37" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K37" t="inlineStr">
+      <c r="M37" t="inlineStr">
         <is>
           <t>Afya</t>
         </is>
       </c>
-      <c r="L37" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t>Arusha</t>
         </is>
       </c>
-      <c r="M37" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N37" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O37" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>Arusha Rural</t>
         </is>
       </c>
-      <c r="P37" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>Oltrumet</t>
         </is>
       </c>
-      <c r="Q37" t="n">
-        <v>200</v>
-      </c>
-      <c r="R37" t="b">
+      <c r="S37" t="b">
         <v>1</v>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="T37" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T37" t="inlineStr">
+      <c r="U37" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="U37" t="b">
+      <c r="V37" t="b">
         <v>1</v>
-      </c>
-      <c r="V37" t="n">
-        <v>2000</v>
       </c>
       <c r="W37" t="inlineStr">
         <is>
@@ -7085,93 +7085,93 @@
         <v>67359</v>
       </c>
       <c r="B38" t="n">
-        <v>10</v>
-      </c>
-      <c r="C38" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0</v>
+      </c>
+      <c r="D38" t="n">
+        <v>33.85434473</v>
+      </c>
+      <c r="E38" t="n">
+        <v>-9.638519929999999</v>
+      </c>
+      <c r="F38" t="n">
+        <v>0</v>
+      </c>
+      <c r="G38" t="n">
+        <v>0</v>
+      </c>
+      <c r="H38" t="inlineStr">
         <is>
           <t>danida</t>
         </is>
       </c>
-      <c r="D38" t="n">
-        <v>42</v>
-      </c>
-      <c r="E38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>central government</t>
         </is>
       </c>
-      <c r="F38" t="n">
-        <v>48.727877565</v>
-      </c>
-      <c r="G38" t="n">
-        <v>2.516777790000001</v>
-      </c>
-      <c r="H38" t="inlineStr">
+      <c r="J38" t="inlineStr">
         <is>
           <t>Office Ya Kijiji</t>
         </is>
       </c>
-      <c r="I38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="L38" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K38" t="inlineStr">
+      <c r="M38" t="inlineStr">
         <is>
           <t>Ndanganyika</t>
         </is>
       </c>
-      <c r="L38" t="inlineStr">
+      <c r="N38" t="inlineStr">
         <is>
           <t>Mbeya</t>
         </is>
       </c>
-      <c r="M38" t="inlineStr">
+      <c r="O38" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N38" t="inlineStr">
+      <c r="P38" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O38" t="inlineStr">
+      <c r="Q38" t="inlineStr">
         <is>
           <t>Kyela</t>
         </is>
       </c>
-      <c r="P38" t="inlineStr">
+      <c r="R38" t="inlineStr">
         <is>
           <t>Katumbasongwe</t>
         </is>
       </c>
-      <c r="Q38" t="n">
-        <v>100</v>
-      </c>
-      <c r="R38" t="b">
+      <c r="S38" t="b">
         <v>1</v>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="T38" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T38" t="inlineStr">
+      <c r="U38" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U38" t="b">
+      <c r="V38" t="b">
         <v>1</v>
-      </c>
-      <c r="V38" t="n">
-        <v>2002</v>
       </c>
       <c r="W38" t="inlineStr">
         <is>
@@ -7264,93 +7264,93 @@
         <v>60048</v>
       </c>
       <c r="B39" t="n">
-        <v>10</v>
-      </c>
-      <c r="C39" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0</v>
+      </c>
+      <c r="D39" t="n">
+        <v>35.85837259</v>
+      </c>
+      <c r="E39" t="n">
+        <v>-4.6479063</v>
+      </c>
+      <c r="F39" t="n">
+        <v>0</v>
+      </c>
+      <c r="G39" t="n">
+        <v>0</v>
+      </c>
+      <c r="H39" t="inlineStr">
         <is>
           <t>kirde</t>
         </is>
       </c>
-      <c r="D39" t="n">
-        <v>42</v>
-      </c>
-      <c r="E39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F39" t="n">
-        <v>50.731905425</v>
-      </c>
-      <c r="G39" t="n">
-        <v>7.50739142</v>
-      </c>
-      <c r="H39" t="inlineStr">
+      <c r="J39" t="inlineStr">
         <is>
           <t>Tangi</t>
         </is>
       </c>
-      <c r="I39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="L39" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K39" t="inlineStr">
+      <c r="M39" t="inlineStr">
         <is>
           <t>Baura</t>
         </is>
       </c>
-      <c r="L39" t="inlineStr">
+      <c r="N39" t="inlineStr">
         <is>
           <t>Dodoma</t>
         </is>
       </c>
-      <c r="M39" t="inlineStr">
+      <c r="O39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="N39" t="inlineStr">
+      <c r="P39" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O39" t="inlineStr">
+      <c r="Q39" t="inlineStr">
         <is>
           <t>Kondoa</t>
         </is>
       </c>
-      <c r="P39" t="inlineStr">
+      <c r="R39" t="inlineStr">
         <is>
           <t>Mnenia</t>
         </is>
       </c>
-      <c r="Q39" t="n">
-        <v>100</v>
-      </c>
-      <c r="R39" t="b">
+      <c r="S39" t="b">
         <v>1</v>
       </c>
-      <c r="S39" t="inlineStr">
+      <c r="T39" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T39" t="inlineStr">
+      <c r="U39" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U39" t="b">
+      <c r="V39" t="b">
         <v>0</v>
-      </c>
-      <c r="V39" t="n">
-        <v>2002</v>
       </c>
       <c r="W39" t="inlineStr">
         <is>
@@ -7443,93 +7443,93 @@
         <v>16583</v>
       </c>
       <c r="B40" t="n">
-        <v>4010</v>
-      </c>
-      <c r="C40" t="inlineStr">
+        <v>4000</v>
+      </c>
+      <c r="C40" t="n">
+        <v>1955</v>
+      </c>
+      <c r="D40" t="n">
+        <v>35.89026429</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-8.22439872</v>
+      </c>
+      <c r="F40" t="n">
+        <v>100</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H40" t="inlineStr">
         <is>
           <t>cefa</t>
         </is>
       </c>
-      <c r="D40" t="n">
-        <v>1997</v>
-      </c>
-      <c r="E40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>cefa</t>
         </is>
       </c>
-      <c r="F40" t="n">
-        <v>50.763797125</v>
-      </c>
-      <c r="G40" t="n">
-        <v>3.930899</v>
-      </c>
-      <c r="H40" t="inlineStr">
+      <c r="J40" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="L40" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K40" t="inlineStr">
+      <c r="M40" t="inlineStr">
         <is>
           <t>Mwanzala</t>
         </is>
       </c>
-      <c r="L40" t="inlineStr">
+      <c r="N40" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M40" t="inlineStr">
+      <c r="O40" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N40" t="inlineStr">
+      <c r="P40" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O40" t="inlineStr">
+      <c r="Q40" t="inlineStr">
         <is>
           <t>Kilolo</t>
         </is>
       </c>
-      <c r="P40" t="inlineStr">
+      <c r="R40" t="inlineStr">
         <is>
           <t>Boma la ng'ombe</t>
         </is>
       </c>
-      <c r="Q40" t="n">
-        <v>100</v>
-      </c>
-      <c r="R40" t="b">
+      <c r="S40" t="b">
         <v>1</v>
       </c>
-      <c r="S40" t="inlineStr">
+      <c r="T40" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T40" t="inlineStr">
+      <c r="U40" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U40" t="b">
+      <c r="V40" t="b">
         <v>1</v>
-      </c>
-      <c r="V40" t="n">
-        <v>2003</v>
       </c>
       <c r="W40" t="inlineStr">
         <is>
@@ -7622,93 +7622,93 @@
         <v>25</v>
       </c>
       <c r="B41" t="n">
-        <v>10</v>
-      </c>
-      <c r="C41" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1348</v>
+      </c>
+      <c r="D41" t="n">
+        <v>30.6133054</v>
+      </c>
+      <c r="E41" t="n">
+        <v>-3.89456056</v>
+      </c>
+      <c r="F41" t="n">
+        <v>230</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2002</v>
+      </c>
+      <c r="H41" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D41" t="n">
-        <v>1390</v>
-      </c>
-      <c r="E41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F41" t="n">
-        <v>45.486838235</v>
-      </c>
-      <c r="G41" t="n">
-        <v>8.26073716</v>
-      </c>
-      <c r="H41" t="inlineStr">
+      <c r="J41" t="inlineStr">
         <is>
           <t>Mkuyuni</t>
         </is>
       </c>
-      <c r="I41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="L41" t="inlineStr">
         <is>
           <t>Lake Tanganyika</t>
         </is>
       </c>
-      <c r="K41" t="inlineStr">
+      <c r="M41" t="inlineStr">
         <is>
           <t>Nyabwai B</t>
         </is>
       </c>
-      <c r="L41" t="inlineStr">
+      <c r="N41" t="inlineStr">
         <is>
           <t>Kigoma</t>
         </is>
       </c>
-      <c r="M41" t="inlineStr">
+      <c r="O41" t="inlineStr">
         <is>
           <t>16</t>
         </is>
       </c>
-      <c r="N41" t="inlineStr">
+      <c r="P41" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="O41" t="inlineStr">
+      <c r="Q41" t="inlineStr">
         <is>
           <t>Kibondo</t>
         </is>
       </c>
-      <c r="P41" t="inlineStr">
+      <c r="R41" t="inlineStr">
         <is>
           <t>Rugongowe</t>
         </is>
       </c>
-      <c r="Q41" t="n">
-        <v>230</v>
-      </c>
-      <c r="R41" t="b">
+      <c r="S41" t="b">
         <v>1</v>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="T41" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T41" t="inlineStr">
+      <c r="U41" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U41" t="b">
+      <c r="V41" t="b">
         <v>0</v>
-      </c>
-      <c r="V41" t="n">
-        <v>2002</v>
       </c>
       <c r="W41" t="inlineStr">
         <is>
@@ -7801,93 +7801,93 @@
         <v>70238</v>
       </c>
       <c r="B42" t="n">
-        <v>35</v>
-      </c>
-      <c r="C42" t="inlineStr">
+        <v>25</v>
+      </c>
+      <c r="C42" t="n">
+        <v>710</v>
+      </c>
+      <c r="D42" t="n">
+        <v>37.42002692</v>
+      </c>
+      <c r="E42" t="n">
+        <v>-3.47684942</v>
+      </c>
+      <c r="F42" t="n">
+        <v>50</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2008</v>
+      </c>
+      <c r="H42" t="inlineStr">
         <is>
           <t>cesgmbh</t>
         </is>
       </c>
-      <c r="D42" t="n">
-        <v>752</v>
-      </c>
-      <c r="E42" t="inlineStr">
+      <c r="I42" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F42" t="n">
-        <v>52.293559755</v>
-      </c>
-      <c r="G42" t="n">
-        <v>8.678448299999999</v>
-      </c>
-      <c r="H42" t="inlineStr">
+      <c r="J42" t="inlineStr">
         <is>
           <t>Kwa Lusina</t>
         </is>
       </c>
-      <c r="I42" t="inlineStr">
+      <c r="K42" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J42" t="inlineStr">
+      <c r="L42" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K42" t="inlineStr">
+      <c r="M42" t="inlineStr">
         <is>
           <t>Reli B</t>
         </is>
       </c>
-      <c r="L42" t="inlineStr">
+      <c r="N42" t="inlineStr">
         <is>
           <t>Kilimanjaro</t>
         </is>
       </c>
-      <c r="M42" t="inlineStr">
+      <c r="O42" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="N42" t="inlineStr">
+      <c r="P42" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O42" t="inlineStr">
+      <c r="Q42" t="inlineStr">
         <is>
           <t>Moshi Rural</t>
         </is>
       </c>
-      <c r="P42" t="inlineStr">
+      <c r="R42" t="inlineStr">
         <is>
           <t>Kahe</t>
         </is>
       </c>
-      <c r="Q42" t="n">
-        <v>50</v>
-      </c>
-      <c r="R42" t="b">
+      <c r="S42" t="b">
         <v>1</v>
       </c>
-      <c r="S42" t="inlineStr">
+      <c r="T42" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T42" t="inlineStr">
+      <c r="U42" t="inlineStr">
         <is>
           <t>Water Board</t>
         </is>
       </c>
-      <c r="U42" t="b">
+      <c r="V42" t="b">
         <v>1</v>
-      </c>
-      <c r="V42" t="n">
-        <v>2008</v>
       </c>
       <c r="W42" t="inlineStr">
         <is>
@@ -7980,93 +7980,93 @@
         <v>12796</v>
       </c>
       <c r="B43" t="n">
-        <v>510</v>
-      </c>
-      <c r="C43" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C43" t="n">
+        <v>2469</v>
+      </c>
+      <c r="D43" t="n">
+        <v>33.92790176</v>
+      </c>
+      <c r="E43" t="n">
+        <v>-9.204649229999999</v>
+      </c>
+      <c r="F43" t="n">
+        <v>0</v>
+      </c>
+      <c r="G43" t="n">
+        <v>1986</v>
+      </c>
+      <c r="H43" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D43" t="n">
-        <v>2511</v>
-      </c>
-      <c r="E43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>commu</t>
         </is>
       </c>
-      <c r="F43" t="n">
-        <v>48.801434595</v>
-      </c>
-      <c r="G43" t="n">
-        <v>2.950648490000001</v>
-      </c>
-      <c r="H43" t="inlineStr">
+      <c r="J43" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I43" t="inlineStr">
+      <c r="K43" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J43" t="inlineStr">
+      <c r="L43" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K43" t="inlineStr">
+      <c r="M43" t="inlineStr">
         <is>
           <t>Kilunduwe</t>
         </is>
       </c>
-      <c r="L43" t="inlineStr">
+      <c r="N43" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M43" t="inlineStr">
+      <c r="O43" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N43" t="inlineStr">
+      <c r="P43" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O43" t="inlineStr">
+      <c r="Q43" t="inlineStr">
         <is>
           <t>Makete</t>
         </is>
       </c>
-      <c r="P43" t="inlineStr">
+      <c r="R43" t="inlineStr">
         <is>
           <t>Ipelele</t>
         </is>
       </c>
-      <c r="Q43" t="n">
-        <v>100</v>
-      </c>
-      <c r="R43" t="b">
+      <c r="S43" t="b">
         <v>1</v>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="T43" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T43" t="inlineStr">
+      <c r="U43" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U43" t="b">
+      <c r="V43" t="b">
         <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>1986</v>
       </c>
       <c r="W43" t="inlineStr">
         <is>
@@ -8159,93 +8159,93 @@
         <v>52019</v>
       </c>
       <c r="B44" t="n">
-        <v>510</v>
-      </c>
-      <c r="C44" t="inlineStr">
+        <v>500</v>
+      </c>
+      <c r="C44" t="n">
+        <v>1803</v>
+      </c>
+      <c r="D44" t="n">
+        <v>34.81457364</v>
+      </c>
+      <c r="E44" t="n">
+        <v>-9.03250291</v>
+      </c>
+      <c r="F44" t="n">
+        <v>250</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2011</v>
+      </c>
+      <c r="H44" t="inlineStr">
         <is>
           <t>european union</t>
         </is>
       </c>
-      <c r="D44" t="n">
-        <v>1845</v>
-      </c>
-      <c r="E44" t="inlineStr">
+      <c r="I44" t="inlineStr">
         <is>
           <t>accra</t>
         </is>
       </c>
-      <c r="F44" t="n">
-        <v>49.688106475</v>
-      </c>
-      <c r="G44" t="n">
-        <v>3.12279481</v>
-      </c>
-      <c r="H44" t="inlineStr">
+      <c r="J44" t="inlineStr">
         <is>
           <t>Zahanati-Misssion</t>
         </is>
       </c>
-      <c r="I44" t="inlineStr">
+      <c r="K44" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J44" t="inlineStr">
+      <c r="L44" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K44" t="inlineStr">
+      <c r="M44" t="inlineStr">
         <is>
           <t>Sokoni</t>
         </is>
       </c>
-      <c r="L44" t="inlineStr">
+      <c r="N44" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M44" t="inlineStr">
+      <c r="O44" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N44" t="inlineStr">
+      <c r="P44" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O44" t="inlineStr">
+      <c r="Q44" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P44" t="inlineStr">
+      <c r="R44" t="inlineStr">
         <is>
           <t>Mtwango</t>
         </is>
       </c>
-      <c r="Q44" t="n">
-        <v>250</v>
-      </c>
-      <c r="R44" t="b">
+      <c r="S44" t="b">
         <v>1</v>
       </c>
-      <c r="S44" t="inlineStr">
+      <c r="T44" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T44" t="inlineStr">
+      <c r="U44" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U44" t="b">
+      <c r="V44" t="b">
         <v>1</v>
-      </c>
-      <c r="V44" t="n">
-        <v>2011</v>
       </c>
       <c r="W44" t="inlineStr">
         <is>
@@ -8338,95 +8338,95 @@
         <v>19282</v>
       </c>
       <c r="B45" t="n">
-        <v>10</v>
-      </c>
-      <c r="C45" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C45" t="n">
+        <v>1642</v>
+      </c>
+      <c r="D45" t="n">
+        <v>34.96778863</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-4.62892053</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1</v>
+      </c>
+      <c r="G45" t="n">
+        <v>1980</v>
+      </c>
+      <c r="H45" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="D45" t="n">
-        <v>1684</v>
-      </c>
-      <c r="E45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="F45" t="n">
-        <v>49.841321465</v>
-      </c>
-      <c r="G45" t="n">
-        <v>7.52637719</v>
-      </c>
-      <c r="H45" t="inlineStr">
+      <c r="J45" t="inlineStr">
         <is>
           <t>Mvae Primary</t>
         </is>
       </c>
-      <c r="I45" t="inlineStr">
+      <c r="K45" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J45" t="inlineStr">
+      <c r="L45" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K45" t="inlineStr">
+      <c r="M45" t="inlineStr">
         <is>
           <t>Mwarufyu</t>
         </is>
       </c>
-      <c r="L45" t="inlineStr">
+      <c r="N45" t="inlineStr">
         <is>
           <t>Singida</t>
         </is>
       </c>
-      <c r="M45" t="inlineStr">
+      <c r="O45" t="inlineStr">
         <is>
           <t>13</t>
         </is>
       </c>
-      <c r="N45" t="inlineStr">
+      <c r="P45" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O45" t="inlineStr">
+      <c r="Q45" t="inlineStr">
         <is>
           <t>Singida Rural</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr">
+      <c r="R45" t="inlineStr">
         <is>
           <t>Merya</t>
         </is>
       </c>
-      <c r="Q45" t="n">
+      <c r="S45" t="b">
         <v>1</v>
       </c>
-      <c r="R45" t="b">
-        <v>1</v>
-      </c>
-      <c r="S45" t="inlineStr">
+      <c r="T45" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T45" t="inlineStr">
+      <c r="U45" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U45" t="inlineStr">
+      <c r="V45" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
-      </c>
-      <c r="V45" t="n">
-        <v>1980</v>
       </c>
       <c r="W45" t="inlineStr">
         <is>
@@ -8519,93 +8519,93 @@
         <v>1843</v>
       </c>
       <c r="B46" t="n">
-        <v>30</v>
-      </c>
-      <c r="C46" t="inlineStr">
+        <v>20</v>
+      </c>
+      <c r="C46" t="n">
+        <v>1007</v>
+      </c>
+      <c r="D46" t="n">
+        <v>36.80607857</v>
+      </c>
+      <c r="E46" t="n">
+        <v>-3.47855934</v>
+      </c>
+      <c r="F46" t="n">
+        <v>100</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2000</v>
+      </c>
+      <c r="H46" t="inlineStr">
         <is>
           <t>government of tanzania</t>
         </is>
       </c>
-      <c r="D46" t="n">
-        <v>1049</v>
-      </c>
-      <c r="E46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F46" t="n">
-        <v>51.679611405</v>
-      </c>
-      <c r="G46" t="n">
-        <v>8.67673838</v>
-      </c>
-      <c r="H46" t="inlineStr">
+      <c r="J46" t="inlineStr">
         <is>
           <t>Kwa Bariki</t>
         </is>
       </c>
-      <c r="I46" t="inlineStr">
+      <c r="K46" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J46" t="inlineStr">
+      <c r="L46" t="inlineStr">
         <is>
           <t>Pangani</t>
         </is>
       </c>
-      <c r="K46" t="inlineStr">
+      <c r="M46" t="inlineStr">
         <is>
           <t>Marurani Juu</t>
         </is>
       </c>
-      <c r="L46" t="inlineStr">
+      <c r="N46" t="inlineStr">
         <is>
           <t>Arusha</t>
         </is>
       </c>
-      <c r="M46" t="inlineStr">
+      <c r="O46" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="N46" t="inlineStr">
+      <c r="P46" t="inlineStr">
         <is>
           <t>2</t>
         </is>
       </c>
-      <c r="O46" t="inlineStr">
+      <c r="Q46" t="inlineStr">
         <is>
           <t>Arusha Rural</t>
         </is>
       </c>
-      <c r="P46" t="inlineStr">
+      <c r="R46" t="inlineStr">
         <is>
           <t>Nduruma</t>
         </is>
       </c>
-      <c r="Q46" t="n">
-        <v>100</v>
-      </c>
-      <c r="R46" t="b">
+      <c r="S46" t="b">
         <v>1</v>
       </c>
-      <c r="S46" t="inlineStr">
+      <c r="T46" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T46" t="inlineStr">
+      <c r="U46" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U46" t="b">
+      <c r="V46" t="b">
         <v>1</v>
-      </c>
-      <c r="V46" t="n">
-        <v>2000</v>
       </c>
       <c r="W46" t="inlineStr">
         <is>
@@ -8698,93 +8698,93 @@
         <v>12958</v>
       </c>
       <c r="B47" t="n">
-        <v>10</v>
-      </c>
-      <c r="C47" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0</v>
+      </c>
+      <c r="D47" t="n">
+        <v>33.34526033</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-3.83899753</v>
+      </c>
+      <c r="F47" t="n">
+        <v>0</v>
+      </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
+      <c r="H47" t="inlineStr">
         <is>
           <t>world vision</t>
         </is>
       </c>
-      <c r="D47" t="n">
-        <v>42</v>
-      </c>
-      <c r="E47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>world vision</t>
         </is>
       </c>
-      <c r="F47" t="n">
-        <v>48.218793165</v>
-      </c>
-      <c r="G47" t="n">
-        <v>8.31630019</v>
-      </c>
-      <c r="H47" t="inlineStr">
+      <c r="J47" t="inlineStr">
         <is>
           <t>Shimasa</t>
         </is>
       </c>
-      <c r="I47" t="inlineStr">
+      <c r="K47" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J47" t="inlineStr">
+      <c r="L47" t="inlineStr">
         <is>
           <t>Internal</t>
         </is>
       </c>
-      <c r="K47" t="inlineStr">
+      <c r="M47" t="inlineStr">
         <is>
           <t>Isenegeja</t>
         </is>
       </c>
-      <c r="L47" t="inlineStr">
+      <c r="N47" t="inlineStr">
         <is>
           <t>Shinyanga</t>
         </is>
       </c>
-      <c r="M47" t="inlineStr">
+      <c r="O47" t="inlineStr">
         <is>
           <t>17</t>
         </is>
       </c>
-      <c r="N47" t="inlineStr">
+      <c r="P47" t="inlineStr">
         <is>
           <t>3</t>
         </is>
       </c>
-      <c r="O47" t="inlineStr">
+      <c r="Q47" t="inlineStr">
         <is>
           <t>Shinyanga Rural</t>
         </is>
       </c>
-      <c r="P47" t="inlineStr">
+      <c r="R47" t="inlineStr">
         <is>
           <t>Samuye</t>
         </is>
       </c>
-      <c r="Q47" t="n">
-        <v>100</v>
-      </c>
-      <c r="R47" t="b">
+      <c r="S47" t="b">
         <v>1</v>
       </c>
-      <c r="S47" t="inlineStr">
+      <c r="T47" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T47" t="inlineStr">
+      <c r="U47" t="inlineStr">
         <is>
           <t>WUG</t>
         </is>
       </c>
-      <c r="U47" t="b">
+      <c r="V47" t="b">
         <v>1</v>
-      </c>
-      <c r="V47" t="n">
-        <v>2002</v>
       </c>
       <c r="W47" t="inlineStr">
         <is>
@@ -8877,93 +8877,93 @@
         <v>45111</v>
       </c>
       <c r="B48" t="n">
+        <v>20</v>
+      </c>
+      <c r="C48" t="n">
+        <v>240</v>
+      </c>
+      <c r="D48" t="n">
+        <v>39.08741514</v>
+      </c>
+      <c r="E48" t="n">
+        <v>-11.00060373</v>
+      </c>
+      <c r="F48" t="n">
         <v>30</v>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="G48" t="n">
+        <v>2004</v>
+      </c>
+      <c r="H48" t="inlineStr">
         <is>
           <t>lga</t>
         </is>
       </c>
-      <c r="D48" t="n">
-        <v>282</v>
-      </c>
-      <c r="E48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>lga</t>
         </is>
       </c>
-      <c r="F48" t="n">
-        <v>53.960947975</v>
-      </c>
-      <c r="G48" t="n">
-        <v>1.15469399</v>
-      </c>
-      <c r="H48" t="inlineStr">
+      <c r="J48" t="inlineStr">
         <is>
           <t>Mikoroshini</t>
         </is>
       </c>
-      <c r="I48" t="inlineStr">
+      <c r="K48" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J48" t="inlineStr">
+      <c r="L48" t="inlineStr">
         <is>
           <t>Ruvuma / Southern Coast</t>
         </is>
       </c>
-      <c r="K48" t="inlineStr">
+      <c r="M48" t="inlineStr">
         <is>
           <t>Kachulu</t>
         </is>
       </c>
-      <c r="L48" t="inlineStr">
+      <c r="N48" t="inlineStr">
         <is>
           <t>Mtwara</t>
         </is>
       </c>
-      <c r="M48" t="inlineStr">
+      <c r="O48" t="inlineStr">
         <is>
           <t>90</t>
         </is>
       </c>
-      <c r="N48" t="inlineStr">
+      <c r="P48" t="inlineStr">
         <is>
           <t>33</t>
         </is>
       </c>
-      <c r="O48" t="inlineStr">
+      <c r="Q48" t="inlineStr">
         <is>
           <t>Masasi</t>
         </is>
       </c>
-      <c r="P48" t="inlineStr">
+      <c r="R48" t="inlineStr">
         <is>
           <t>Sindano</t>
         </is>
       </c>
-      <c r="Q48" t="n">
-        <v>30</v>
-      </c>
-      <c r="R48" t="b">
+      <c r="S48" t="b">
         <v>1</v>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="T48" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T48" t="inlineStr">
+      <c r="U48" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U48" t="b">
+      <c r="V48" t="b">
         <v>1</v>
-      </c>
-      <c r="V48" t="n">
-        <v>2004</v>
       </c>
       <c r="W48" t="inlineStr">
         <is>
@@ -9056,95 +9056,95 @@
         <v>13620</v>
       </c>
       <c r="B49" t="n">
-        <v>10</v>
-      </c>
-      <c r="C49" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0</v>
+      </c>
+      <c r="D49" t="n">
+        <v>33.5406067</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-9.17290468</v>
+      </c>
+      <c r="F49" t="n">
+        <v>0</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0</v>
+      </c>
+      <c r="H49" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="D49" t="n">
-        <v>42</v>
-      </c>
-      <c r="E49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="F49" t="n">
-        <v>48.414139535</v>
-      </c>
-      <c r="G49" t="n">
-        <v>2.98239304</v>
-      </c>
-      <c r="H49" t="inlineStr">
+      <c r="J49" t="inlineStr">
         <is>
           <t>Mahakamani</t>
         </is>
       </c>
-      <c r="I49" t="inlineStr">
+      <c r="K49" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J49" t="inlineStr">
+      <c r="L49" t="inlineStr">
         <is>
           <t>Lake Nyasa</t>
         </is>
       </c>
-      <c r="K49" t="inlineStr">
+      <c r="M49" t="inlineStr">
         <is>
           <t>Mpandapanda</t>
         </is>
       </c>
-      <c r="L49" t="inlineStr">
+      <c r="N49" t="inlineStr">
         <is>
           <t>Mbeya</t>
         </is>
       </c>
-      <c r="M49" t="inlineStr">
+      <c r="O49" t="inlineStr">
         <is>
           <t>12</t>
         </is>
       </c>
-      <c r="N49" t="inlineStr">
+      <c r="P49" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O49" t="inlineStr">
+      <c r="Q49" t="inlineStr">
         <is>
           <t>Rungwe</t>
         </is>
       </c>
-      <c r="P49" t="inlineStr">
+      <c r="R49" t="inlineStr">
         <is>
           <t>Kiwira</t>
         </is>
       </c>
-      <c r="Q49" t="n">
-        <v>100</v>
-      </c>
-      <c r="R49" t="b">
+      <c r="S49" t="b">
         <v>1</v>
       </c>
-      <c r="S49" t="inlineStr">
+      <c r="T49" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T49" t="inlineStr">
+      <c r="U49" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U49" t="inlineStr">
+      <c r="V49" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
-      </c>
-      <c r="V49" t="n">
-        <v>2002</v>
       </c>
       <c r="W49" t="inlineStr">
         <is>
@@ -9237,93 +9237,93 @@
         <v>18864</v>
       </c>
       <c r="B50" t="n">
-        <v>4010</v>
-      </c>
-      <c r="C50" t="inlineStr">
+        <v>4000</v>
+      </c>
+      <c r="C50" t="n">
+        <v>1982</v>
+      </c>
+      <c r="D50" t="n">
+        <v>35.87141325</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-8.227563030000001</v>
+      </c>
+      <c r="F50" t="n">
+        <v>70</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2003</v>
+      </c>
+      <c r="H50" t="inlineStr">
         <is>
           <t>cefa</t>
         </is>
       </c>
-      <c r="D50" t="n">
-        <v>2024</v>
-      </c>
-      <c r="E50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>cefa</t>
         </is>
       </c>
-      <c r="F50" t="n">
-        <v>50.744946085</v>
-      </c>
-      <c r="G50" t="n">
-        <v>3.927734689999999</v>
-      </c>
-      <c r="H50" t="inlineStr">
+      <c r="J50" t="inlineStr">
         <is>
           <t>unknown</t>
         </is>
       </c>
-      <c r="I50" t="inlineStr">
+      <c r="K50" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J50" t="inlineStr">
+      <c r="L50" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K50" t="inlineStr">
+      <c r="M50" t="inlineStr">
         <is>
           <t>Mlandege Juu</t>
         </is>
       </c>
-      <c r="L50" t="inlineStr">
+      <c r="N50" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M50" t="inlineStr">
+      <c r="O50" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N50" t="inlineStr">
+      <c r="P50" t="inlineStr">
         <is>
           <t>7</t>
         </is>
       </c>
-      <c r="O50" t="inlineStr">
+      <c r="Q50" t="inlineStr">
         <is>
           <t>Kilolo</t>
         </is>
       </c>
-      <c r="P50" t="inlineStr">
+      <c r="R50" t="inlineStr">
         <is>
           <t>Boma la ng'ombe</t>
         </is>
       </c>
-      <c r="Q50" t="n">
-        <v>70</v>
-      </c>
-      <c r="R50" t="b">
+      <c r="S50" t="b">
         <v>1</v>
       </c>
-      <c r="S50" t="inlineStr">
+      <c r="T50" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T50" t="inlineStr">
+      <c r="U50" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U50" t="b">
+      <c r="V50" t="b">
         <v>1</v>
-      </c>
-      <c r="V50" t="n">
-        <v>2003</v>
       </c>
       <c r="W50" t="inlineStr">
         <is>
@@ -9416,93 +9416,93 @@
         <v>25182</v>
       </c>
       <c r="B51" t="n">
-        <v>1510</v>
-      </c>
-      <c r="C51" t="inlineStr">
+        <v>1500</v>
+      </c>
+      <c r="C51" t="n">
+        <v>2169</v>
+      </c>
+      <c r="D51" t="n">
+        <v>34.44128349</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-9.189877660000001</v>
+      </c>
+      <c r="F51" t="n">
+        <v>20</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2007</v>
+      </c>
+      <c r="H51" t="inlineStr">
         <is>
           <t>district council</t>
         </is>
       </c>
-      <c r="D51" t="n">
-        <v>2211</v>
-      </c>
-      <c r="E51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>dwe</t>
         </is>
       </c>
-      <c r="F51" t="n">
-        <v>49.314816325</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2.96542006</v>
-      </c>
-      <c r="H51" t="inlineStr">
+      <c r="J51" t="inlineStr">
         <is>
           <t>Kwa Bryson Msigwa</t>
         </is>
       </c>
-      <c r="I51" t="inlineStr">
+      <c r="K51" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="J51" t="inlineStr">
+      <c r="L51" t="inlineStr">
         <is>
           <t>Rufiji</t>
         </is>
       </c>
-      <c r="K51" t="inlineStr">
+      <c r="M51" t="inlineStr">
         <is>
           <t>Ikanga</t>
         </is>
       </c>
-      <c r="L51" t="inlineStr">
+      <c r="N51" t="inlineStr">
         <is>
           <t>Iringa</t>
         </is>
       </c>
-      <c r="M51" t="inlineStr">
+      <c r="O51" t="inlineStr">
         <is>
           <t>11</t>
         </is>
       </c>
-      <c r="N51" t="inlineStr">
+      <c r="P51" t="inlineStr">
         <is>
           <t>4</t>
         </is>
       </c>
-      <c r="O51" t="inlineStr">
+      <c r="Q51" t="inlineStr">
         <is>
           <t>Njombe</t>
         </is>
       </c>
-      <c r="P51" t="inlineStr">
+      <c r="R51" t="inlineStr">
         <is>
           <t>Wangama</t>
         </is>
       </c>
-      <c r="Q51" t="n">
-        <v>20</v>
-      </c>
-      <c r="R51" t="b">
+      <c r="S51" t="b">
         <v>1</v>
       </c>
-      <c r="S51" t="inlineStr">
+      <c r="T51" t="inlineStr">
         <is>
           <t>GeoData Consultants Ltd</t>
         </is>
       </c>
-      <c r="T51" t="inlineStr">
+      <c r="U51" t="inlineStr">
         <is>
           <t>VWC</t>
         </is>
       </c>
-      <c r="U51" t="b">
+      <c r="V51" t="b">
         <v>1</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2007</v>
       </c>
       <c r="W51" t="inlineStr">
         <is>
